--- a/data/nzd0150/nzd0150.xlsx
+++ b/data/nzd0150/nzd0150.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD286"/>
+  <dimension ref="A1:AD290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24732,6 +24732,386 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>487.6742857142857</v>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="n">
+        <v>395.2642857142857</v>
+      </c>
+      <c r="E287" t="n">
+        <v>383.3042857142857</v>
+      </c>
+      <c r="F287" t="n">
+        <v>380.6372727272728</v>
+      </c>
+      <c r="G287" t="n">
+        <v>379.23</v>
+      </c>
+      <c r="H287" t="n">
+        <v>370.3</v>
+      </c>
+      <c r="I287" t="n">
+        <v>358.5766666666667</v>
+      </c>
+      <c r="J287" t="n">
+        <v>347.4</v>
+      </c>
+      <c r="K287" t="n">
+        <v>346.2138461538461</v>
+      </c>
+      <c r="L287" t="n">
+        <v>351.4738461538461</v>
+      </c>
+      <c r="M287" t="n">
+        <v>351.0638461538462</v>
+      </c>
+      <c r="N287" t="n">
+        <v>347.07</v>
+      </c>
+      <c r="O287" t="n">
+        <v>343.1872727272727</v>
+      </c>
+      <c r="P287" t="n">
+        <v>349.6472727272728</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>351.24</v>
+      </c>
+      <c r="R287" t="n">
+        <v>354.02</v>
+      </c>
+      <c r="S287" t="n">
+        <v>354.72</v>
+      </c>
+      <c r="T287" t="n">
+        <v>365.71</v>
+      </c>
+      <c r="U287" t="n">
+        <v>372.22</v>
+      </c>
+      <c r="V287" t="n">
+        <v>368.13</v>
+      </c>
+      <c r="W287" t="n">
+        <v>362.18</v>
+      </c>
+      <c r="X287" t="n">
+        <v>371.54</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>384.2685714285714</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>370.6366666666667</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>362.9366666666667</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>375.4766666666667</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>381.03</v>
+      </c>
+      <c r="AD287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>489.7428571428572</v>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="n">
+        <v>387.1128571428572</v>
+      </c>
+      <c r="E288" t="n">
+        <v>381.1528571428572</v>
+      </c>
+      <c r="F288" t="n">
+        <v>375.8072727272727</v>
+      </c>
+      <c r="G288" t="n">
+        <v>375.47</v>
+      </c>
+      <c r="H288" t="n">
+        <v>367.87</v>
+      </c>
+      <c r="I288" t="n">
+        <v>356.2922222222222</v>
+      </c>
+      <c r="J288" t="n">
+        <v>354.38</v>
+      </c>
+      <c r="K288" t="n">
+        <v>346.6215384615385</v>
+      </c>
+      <c r="L288" t="n">
+        <v>348.3915384615385</v>
+      </c>
+      <c r="M288" t="n">
+        <v>351.2715384615385</v>
+      </c>
+      <c r="N288" t="n">
+        <v>342.7766666666667</v>
+      </c>
+      <c r="O288" t="n">
+        <v>342.4672727272728</v>
+      </c>
+      <c r="P288" t="n">
+        <v>349.4572727272728</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>349.78</v>
+      </c>
+      <c r="R288" t="n">
+        <v>353.65</v>
+      </c>
+      <c r="S288" t="n">
+        <v>351.38</v>
+      </c>
+      <c r="T288" t="n">
+        <v>364</v>
+      </c>
+      <c r="U288" t="n">
+        <v>368.54</v>
+      </c>
+      <c r="V288" t="n">
+        <v>363.6233333333333</v>
+      </c>
+      <c r="W288" t="n">
+        <v>357.61</v>
+      </c>
+      <c r="X288" t="n">
+        <v>366.15</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>384.7557142857143</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>368.4422222222223</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>365.6322222222223</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>378.2322222222222</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>377.92</v>
+      </c>
+      <c r="AD288" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>383.8514285714285</v>
+      </c>
+      <c r="C289" t="n">
+        <v>375.9414285714286</v>
+      </c>
+      <c r="D289" t="n">
+        <v>388.6014285714285</v>
+      </c>
+      <c r="E289" t="n">
+        <v>383.1514285714285</v>
+      </c>
+      <c r="F289" t="n">
+        <v>384.8636363636364</v>
+      </c>
+      <c r="G289" t="n">
+        <v>387.27</v>
+      </c>
+      <c r="H289" t="n">
+        <v>379.5</v>
+      </c>
+      <c r="I289" t="n">
+        <v>374.8722222222222</v>
+      </c>
+      <c r="J289" t="n">
+        <v>362.26</v>
+      </c>
+      <c r="K289" t="n">
+        <v>360.1169230769231</v>
+      </c>
+      <c r="L289" t="n">
+        <v>359.8469230769231</v>
+      </c>
+      <c r="M289" t="n">
+        <v>363.6169230769231</v>
+      </c>
+      <c r="N289" t="n">
+        <v>355.4866666666667</v>
+      </c>
+      <c r="O289" t="n">
+        <v>358.8036363636364</v>
+      </c>
+      <c r="P289" t="n">
+        <v>364.5136363636364</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>364.33</v>
+      </c>
+      <c r="R289" t="n">
+        <v>379.88</v>
+      </c>
+      <c r="S289" t="n">
+        <v>376.96</v>
+      </c>
+      <c r="T289" t="n">
+        <v>387.16</v>
+      </c>
+      <c r="U289" t="n">
+        <v>388.73</v>
+      </c>
+      <c r="V289" t="n">
+        <v>394.0433333333333</v>
+      </c>
+      <c r="W289" t="n">
+        <v>402.96</v>
+      </c>
+      <c r="X289" t="n">
+        <v>388.15</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>394.3528571428572</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>377.3322222222222</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>371.4422222222223</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>381.1622222222222</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>381.49</v>
+      </c>
+      <c r="AD289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>369.7828571428572</v>
+      </c>
+      <c r="C290" t="n">
+        <v>375.3728571428572</v>
+      </c>
+      <c r="D290" t="n">
+        <v>371.6628571428572</v>
+      </c>
+      <c r="E290" t="n">
+        <v>374.3628571428572</v>
+      </c>
+      <c r="F290" t="n">
+        <v>377.6354545454545</v>
+      </c>
+      <c r="G290" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="H290" t="n">
+        <v>369.56</v>
+      </c>
+      <c r="I290" t="n">
+        <v>359.41</v>
+      </c>
+      <c r="J290" t="n">
+        <v>350.97</v>
+      </c>
+      <c r="K290" t="n">
+        <v>354.2684615384616</v>
+      </c>
+      <c r="L290" t="n">
+        <v>357.5684615384615</v>
+      </c>
+      <c r="M290" t="n">
+        <v>349.2584615384616</v>
+      </c>
+      <c r="N290" t="n">
+        <v>350.48</v>
+      </c>
+      <c r="O290" t="n">
+        <v>355.3254545454545</v>
+      </c>
+      <c r="P290" t="n">
+        <v>359.4754545454546</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>361.33</v>
+      </c>
+      <c r="R290" t="n">
+        <v>360.83</v>
+      </c>
+      <c r="S290" t="n">
+        <v>367.49</v>
+      </c>
+      <c r="T290" t="n">
+        <v>365.82</v>
+      </c>
+      <c r="U290" t="n">
+        <v>372.01</v>
+      </c>
+      <c r="V290" t="n">
+        <v>374.95</v>
+      </c>
+      <c r="W290" t="n">
+        <v>385.49</v>
+      </c>
+      <c r="X290" t="n">
+        <v>378.89</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>385.8757142857143</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>365.86</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>362.72</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>371.8</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>378.52</v>
+      </c>
+      <c r="AD290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24743,7 +25123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27751,6 +28131,46 @@
       </c>
       <c r="B300" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -27913,28 +28333,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-8.39468461069348</v>
+        <v>-7.931618345253362</v>
       </c>
       <c r="J2" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K2" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5652639683851659</v>
+        <v>0.5187689717013768</v>
       </c>
       <c r="M2" t="n">
-        <v>36.98995635662536</v>
+        <v>38.27058220574607</v>
       </c>
       <c r="N2" t="n">
-        <v>2257.351772023204</v>
+        <v>2467.79495215885</v>
       </c>
       <c r="O2" t="n">
-        <v>47.51159618475477</v>
+        <v>49.67690562181637</v>
       </c>
       <c r="P2" t="n">
-        <v>569.2606944420666</v>
+        <v>563.5986476817457</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27984,28 +28404,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-3.328760963672214</v>
+        <v>-3.312672621057682</v>
       </c>
       <c r="J3" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K3" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1872861107015692</v>
+        <v>0.1900002087057872</v>
       </c>
       <c r="M3" t="n">
-        <v>35.01546285487644</v>
+        <v>34.57970687095207</v>
       </c>
       <c r="N3" t="n">
-        <v>2402.064173943841</v>
+        <v>2368.217752096607</v>
       </c>
       <c r="O3" t="n">
-        <v>49.0108577148354</v>
+        <v>48.66433757996309</v>
       </c>
       <c r="P3" t="n">
-        <v>454.64248756501</v>
+        <v>454.472924110735</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28061,28 +28481,28 @@
         <v>0.1077</v>
       </c>
       <c r="I4" t="n">
-        <v>1.895131620415134</v>
+        <v>1.850363105905213</v>
       </c>
       <c r="J4" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K4" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7234887939692192</v>
+        <v>0.7138829568762184</v>
       </c>
       <c r="M4" t="n">
-        <v>6.553693303003921</v>
+        <v>6.648193844858334</v>
       </c>
       <c r="N4" t="n">
-        <v>69.84673461741701</v>
+        <v>71.92133784787566</v>
       </c>
       <c r="O4" t="n">
-        <v>8.357435887723998</v>
+        <v>8.480644895753841</v>
       </c>
       <c r="P4" t="n">
-        <v>347.0352810759077</v>
+        <v>347.475403931915</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28138,28 +28558,28 @@
         <v>0.0882</v>
       </c>
       <c r="I5" t="n">
-        <v>1.615284287260021</v>
+        <v>1.571890854177654</v>
       </c>
       <c r="J5" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K5" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L5" t="n">
-        <v>0.640922263090782</v>
+        <v>0.6298869722424314</v>
       </c>
       <c r="M5" t="n">
-        <v>6.145652816201152</v>
+        <v>6.205942791000397</v>
       </c>
       <c r="N5" t="n">
-        <v>73.99752118457131</v>
+        <v>75.13303354754098</v>
       </c>
       <c r="O5" t="n">
-        <v>8.602181187615807</v>
+        <v>8.667931330342954</v>
       </c>
       <c r="P5" t="n">
-        <v>350.6739686557035</v>
+        <v>351.1117046991219</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28215,28 +28635,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>0.769286253836599</v>
+        <v>0.7574067626527579</v>
       </c>
       <c r="J6" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2807999400493782</v>
+        <v>0.2823501674442462</v>
       </c>
       <c r="M6" t="n">
-        <v>5.585345084797193</v>
+        <v>5.549844704201126</v>
       </c>
       <c r="N6" t="n">
-        <v>73.04582252571574</v>
+        <v>71.99759389737855</v>
       </c>
       <c r="O6" t="n">
-        <v>8.546684885130359</v>
+        <v>8.485139592097383</v>
       </c>
       <c r="P6" t="n">
-        <v>363.0694707115678</v>
+        <v>363.1921055588169</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28292,28 +28712,28 @@
         <v>0.0561</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3408263517284051</v>
+        <v>0.3274358306247772</v>
       </c>
       <c r="J7" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K7" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04688967855199577</v>
+        <v>0.04502173491876649</v>
       </c>
       <c r="M7" t="n">
-        <v>6.686091641993121</v>
+        <v>6.660899466352397</v>
       </c>
       <c r="N7" t="n">
-        <v>115.0108019251052</v>
+        <v>113.3985772428419</v>
       </c>
       <c r="O7" t="n">
-        <v>10.72430892529235</v>
+        <v>10.6488768066328</v>
       </c>
       <c r="P7" t="n">
-        <v>375.4423086454283</v>
+        <v>375.5792108081481</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28369,28 +28789,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1357270314230176</v>
+        <v>0.1284837549167739</v>
       </c>
       <c r="J8" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K8" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008082197566706917</v>
+        <v>0.007503061065378014</v>
       </c>
       <c r="M8" t="n">
-        <v>7.545799384499277</v>
+        <v>7.496524959174123</v>
       </c>
       <c r="N8" t="n">
-        <v>112.2550659341643</v>
+        <v>110.7130801082274</v>
       </c>
       <c r="O8" t="n">
-        <v>10.59504912372587</v>
+        <v>10.52202832671664</v>
       </c>
       <c r="P8" t="n">
-        <v>370.3827469106689</v>
+        <v>370.4562901107242</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28446,28 +28866,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09775720354289787</v>
+        <v>0.07800485122596398</v>
       </c>
       <c r="J9" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K9" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003784236006524777</v>
+        <v>0.002477882222952421</v>
       </c>
       <c r="M9" t="n">
-        <v>7.936883145879399</v>
+        <v>7.956841012149336</v>
       </c>
       <c r="N9" t="n">
-        <v>127.262132856615</v>
+        <v>126.4528590691416</v>
       </c>
       <c r="O9" t="n">
-        <v>11.28105193927477</v>
+        <v>11.24512601392895</v>
       </c>
       <c r="P9" t="n">
-        <v>365.292450106012</v>
+        <v>365.4921417209933</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28523,28 +28943,28 @@
         <v>0.0568</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02089746094881154</v>
+        <v>0.009620429880452473</v>
       </c>
       <c r="J10" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K10" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002509982373805064</v>
+        <v>5.484637101693668e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>6.539358870256863</v>
+        <v>6.520607848945792</v>
       </c>
       <c r="N10" t="n">
-        <v>85.2810648462598</v>
+        <v>84.442106871859</v>
       </c>
       <c r="O10" t="n">
-        <v>9.234774758826541</v>
+        <v>9.189238644842074</v>
       </c>
       <c r="P10" t="n">
-        <v>356.2949743345947</v>
+        <v>356.4115013545062</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28600,28 +29020,28 @@
         <v>0.0708</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01754176816443955</v>
+        <v>0.01609363912939609</v>
       </c>
       <c r="J11" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K11" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002165565889821197</v>
+        <v>0.0001875523927711287</v>
       </c>
       <c r="M11" t="n">
-        <v>5.840201957163322</v>
+        <v>5.832912549417372</v>
       </c>
       <c r="N11" t="n">
-        <v>70.62141090162206</v>
+        <v>69.97575468048871</v>
       </c>
       <c r="O11" t="n">
-        <v>8.403654615797942</v>
+        <v>8.365151204879007</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7983191833138</v>
+        <v>351.812770914122</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28677,28 +29097,28 @@
         <v>0.0735</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1673109966175361</v>
+        <v>0.167126336008331</v>
       </c>
       <c r="J12" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K12" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01541360996006746</v>
+        <v>0.0158726612182023</v>
       </c>
       <c r="M12" t="n">
-        <v>6.174699270482645</v>
+        <v>6.144292916857357</v>
       </c>
       <c r="N12" t="n">
-        <v>93.35210098812178</v>
+        <v>92.13143111715891</v>
       </c>
       <c r="O12" t="n">
-        <v>9.661889100384137</v>
+        <v>9.59851192201994</v>
       </c>
       <c r="P12" t="n">
-        <v>350.1388283416566</v>
+        <v>350.1403441090919</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28754,28 +29174,28 @@
         <v>0.0697</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2480904904560922</v>
+        <v>0.247668889482803</v>
       </c>
       <c r="J13" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K13" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05159402746658104</v>
+        <v>0.05271712430738618</v>
       </c>
       <c r="M13" t="n">
-        <v>5.880505885612197</v>
+        <v>5.865435093993709</v>
       </c>
       <c r="N13" t="n">
-        <v>58.3583196845528</v>
+        <v>57.93582843698233</v>
       </c>
       <c r="O13" t="n">
-        <v>7.639261723789335</v>
+        <v>7.61155887036173</v>
       </c>
       <c r="P13" t="n">
-        <v>347.6300191855138</v>
+        <v>347.6340709101426</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28831,28 +29251,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2017832175371762</v>
+        <v>0.186415682726389</v>
       </c>
       <c r="J14" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03166533744552846</v>
+        <v>0.02779175218728291</v>
       </c>
       <c r="M14" t="n">
-        <v>6.29585426597103</v>
+        <v>6.291537829810576</v>
       </c>
       <c r="N14" t="n">
-        <v>63.0529480499864</v>
+        <v>62.73135081186742</v>
       </c>
       <c r="O14" t="n">
-        <v>7.940588646314982</v>
+        <v>7.92031254508731</v>
       </c>
       <c r="P14" t="n">
-        <v>348.5687805079943</v>
+        <v>348.7230729836684</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28908,28 +29328,28 @@
         <v>0.0586</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3854887411809998</v>
+        <v>0.35876546604306</v>
       </c>
       <c r="J15" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K15" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08270161338966731</v>
+        <v>0.07332859869331509</v>
       </c>
       <c r="M15" t="n">
-        <v>7.117934397064072</v>
+        <v>7.127088618794235</v>
       </c>
       <c r="N15" t="n">
-        <v>81.61090804407748</v>
+        <v>82.13826604984905</v>
       </c>
       <c r="O15" t="n">
-        <v>9.033875582720711</v>
+        <v>9.063016388038204</v>
       </c>
       <c r="P15" t="n">
-        <v>348.266745666435</v>
+        <v>348.5373548041149</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -28985,28 +29405,28 @@
         <v>0.0599</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4768560146295336</v>
+        <v>0.4545604155595224</v>
       </c>
       <c r="J16" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K16" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L16" t="n">
-        <v>0.117056656117881</v>
+        <v>0.1096449846648817</v>
       </c>
       <c r="M16" t="n">
-        <v>6.811733647937842</v>
+        <v>6.818273582456047</v>
       </c>
       <c r="N16" t="n">
-        <v>82.80859166488321</v>
+        <v>82.78673301032731</v>
       </c>
       <c r="O16" t="n">
-        <v>9.099922618620623</v>
+        <v>9.0987215041635</v>
       </c>
       <c r="P16" t="n">
-        <v>350.129179966235</v>
+        <v>350.3556385850372</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29062,28 +29482,28 @@
         <v>0.056</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5598957178361685</v>
+        <v>0.5347016205843151</v>
       </c>
       <c r="J17" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K17" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1769618241655713</v>
+        <v>0.1665255524490808</v>
       </c>
       <c r="M17" t="n">
-        <v>6.555965157412751</v>
+        <v>6.559960559035128</v>
       </c>
       <c r="N17" t="n">
-        <v>70.27011825138629</v>
+        <v>70.53914151928223</v>
       </c>
       <c r="O17" t="n">
-        <v>8.382727375465953</v>
+        <v>8.398758331996595</v>
       </c>
       <c r="P17" t="n">
-        <v>349.513090987259</v>
+        <v>349.7691802359986</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29139,28 +29559,28 @@
         <v>0.0458</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6475136721516176</v>
+        <v>0.6489796010384815</v>
       </c>
       <c r="J18" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K18" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2192609574361638</v>
+        <v>0.2223377515813248</v>
       </c>
       <c r="M18" t="n">
-        <v>6.502426458708525</v>
+        <v>6.53915905898317</v>
       </c>
       <c r="N18" t="n">
-        <v>70.29872941238597</v>
+        <v>71.01209171341144</v>
       </c>
       <c r="O18" t="n">
-        <v>8.384433756216692</v>
+        <v>8.426867253814518</v>
       </c>
       <c r="P18" t="n">
-        <v>345.2574570195832</v>
+        <v>345.2418340108756</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -29216,28 +29636,28 @@
         <v>0.0429</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6346980123547764</v>
+        <v>0.6358306730167123</v>
       </c>
       <c r="J19" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K19" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1869791779136348</v>
+        <v>0.1903697358790531</v>
       </c>
       <c r="M19" t="n">
-        <v>7.007758089456885</v>
+        <v>7.048845357526507</v>
       </c>
       <c r="N19" t="n">
-        <v>82.86406644813177</v>
+        <v>83.20449761426924</v>
       </c>
       <c r="O19" t="n">
-        <v>9.102970199233422</v>
+        <v>9.121649939252725</v>
       </c>
       <c r="P19" t="n">
-        <v>346.2133641834974</v>
+        <v>346.2011081698172</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -29293,28 +29713,28 @@
         <v>0.0418</v>
       </c>
       <c r="I20" t="n">
-        <v>0.631646550740233</v>
+        <v>0.6430099237413275</v>
       </c>
       <c r="J20" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K20" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1669207077809186</v>
+        <v>0.1748715441845049</v>
       </c>
       <c r="M20" t="n">
-        <v>7.426686201507906</v>
+        <v>7.413600926063695</v>
       </c>
       <c r="N20" t="n">
-        <v>95.39500191282141</v>
+        <v>95.48879411150327</v>
       </c>
       <c r="O20" t="n">
-        <v>9.767036495929634</v>
+        <v>9.771836782893136</v>
       </c>
       <c r="P20" t="n">
-        <v>351.2724201096754</v>
+        <v>351.1560656857951</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -29370,28 +29790,28 @@
         <v>0.0451</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6746377907417597</v>
+        <v>0.6870811675862261</v>
       </c>
       <c r="J21" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K21" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1575507819653763</v>
+        <v>0.1661028745194151</v>
       </c>
       <c r="M21" t="n">
-        <v>8.510650343228908</v>
+        <v>8.45245018187385</v>
       </c>
       <c r="N21" t="n">
-        <v>117.8004488053853</v>
+        <v>117.1223380972065</v>
       </c>
       <c r="O21" t="n">
-        <v>10.85359151642374</v>
+        <v>10.82230742943512</v>
       </c>
       <c r="P21" t="n">
-        <v>354.5063331014041</v>
+        <v>354.3792197287851</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -29447,28 +29867,28 @@
         <v>0.0319</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5948423852395071</v>
+        <v>0.6223534618956272</v>
       </c>
       <c r="J22" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K22" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08773227701798847</v>
+        <v>0.09692089797255732</v>
       </c>
       <c r="M22" t="n">
-        <v>10.52823487785809</v>
+        <v>10.5063487156193</v>
       </c>
       <c r="N22" t="n">
-        <v>176.1921102538873</v>
+        <v>176.521745323437</v>
       </c>
       <c r="O22" t="n">
-        <v>13.27373761432277</v>
+        <v>13.28614862642433</v>
       </c>
       <c r="P22" t="n">
-        <v>351.8997381394895</v>
+        <v>351.6179051646292</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -29524,28 +29944,28 @@
         <v>0.0232</v>
       </c>
       <c r="I23" t="n">
-        <v>1.01252915479075</v>
+        <v>1.040070818415319</v>
       </c>
       <c r="J23" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K23" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2291112813344528</v>
+        <v>0.2386481471011582</v>
       </c>
       <c r="M23" t="n">
-        <v>10.04113858554717</v>
+        <v>10.15774666021744</v>
       </c>
       <c r="N23" t="n">
-        <v>168.6114789063956</v>
+        <v>172.2643789222898</v>
       </c>
       <c r="O23" t="n">
-        <v>12.98504828279031</v>
+        <v>13.1249525302871</v>
       </c>
       <c r="P23" t="n">
-        <v>343.324670447235</v>
+        <v>343.0436823976875</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -29601,28 +30021,28 @@
         <v>0.0254</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7938077054325099</v>
+        <v>0.80431376540971</v>
       </c>
       <c r="J24" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K24" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1814566667044352</v>
+        <v>0.1894696306725678</v>
       </c>
       <c r="M24" t="n">
-        <v>9.085427077706639</v>
+        <v>9.055392486844768</v>
       </c>
       <c r="N24" t="n">
-        <v>139.2600512324902</v>
+        <v>138.3181022175768</v>
       </c>
       <c r="O24" t="n">
-        <v>11.8008495979099</v>
+        <v>11.76087166062009</v>
       </c>
       <c r="P24" t="n">
-        <v>352.7707122063504</v>
+        <v>352.6638488284532</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -29678,28 +30098,28 @@
         <v>0.0362</v>
       </c>
       <c r="I25" t="n">
-        <v>0.797864107439394</v>
+        <v>0.8191894908198591</v>
       </c>
       <c r="J25" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K25" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2227297197917535</v>
+        <v>0.236917843713508</v>
       </c>
       <c r="M25" t="n">
-        <v>7.985884606880821</v>
+        <v>7.960531873752879</v>
       </c>
       <c r="N25" t="n">
-        <v>106.0804261839853</v>
+        <v>105.3238880945148</v>
       </c>
       <c r="O25" t="n">
-        <v>10.2995352411643</v>
+        <v>10.26274271793436</v>
       </c>
       <c r="P25" t="n">
-        <v>360.5432254137191</v>
+        <v>360.3234374527395</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -29755,28 +30175,28 @@
         <v>0.0466</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6632224877305138</v>
+        <v>0.6872632417663728</v>
       </c>
       <c r="J26" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K26" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2096777411168375</v>
+        <v>0.2256244120699883</v>
       </c>
       <c r="M26" t="n">
-        <v>6.846902127736975</v>
+        <v>6.850326485116717</v>
       </c>
       <c r="N26" t="n">
-        <v>78.44537900155152</v>
+        <v>78.27711854978703</v>
       </c>
       <c r="O26" t="n">
-        <v>8.856939595681542</v>
+        <v>8.847435704755759</v>
       </c>
       <c r="P26" t="n">
-        <v>346.483761922045</v>
+        <v>346.2341517557387</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -29832,28 +30252,28 @@
         <v>0.0468</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4456879431358938</v>
+        <v>0.4779853629791038</v>
       </c>
       <c r="J27" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K27" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1252184863937054</v>
+        <v>0.1430118770665725</v>
       </c>
       <c r="M27" t="n">
-        <v>6.248891207287711</v>
+        <v>6.285169017877662</v>
       </c>
       <c r="N27" t="n">
-        <v>65.28271813973421</v>
+        <v>65.79322107422499</v>
       </c>
       <c r="O27" t="n">
-        <v>8.079772158899916</v>
+        <v>8.111302057883494</v>
       </c>
       <c r="P27" t="n">
-        <v>344.8323277140208</v>
+        <v>344.4979942499767</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -29909,28 +30329,28 @@
         <v>0.0456</v>
       </c>
       <c r="I28" t="n">
-        <v>0.27547246881231</v>
+        <v>0.3070558585869481</v>
       </c>
       <c r="J28" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K28" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04319083427445891</v>
+        <v>0.05410480737054935</v>
       </c>
       <c r="M28" t="n">
-        <v>6.824590524449746</v>
+        <v>6.856719883510132</v>
       </c>
       <c r="N28" t="n">
-        <v>79.85292756050879</v>
+        <v>80.02970234084489</v>
       </c>
       <c r="O28" t="n">
-        <v>8.936046528555499</v>
+        <v>8.94593216723919</v>
       </c>
       <c r="P28" t="n">
-        <v>360.5281387331897</v>
+        <v>360.2039464665222</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -29986,28 +30406,28 @@
         <v>0.0456</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1320192999357473</v>
+        <v>0.1469783274645743</v>
       </c>
       <c r="J29" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K29" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01026164972954657</v>
+        <v>0.01311657780251241</v>
       </c>
       <c r="M29" t="n">
-        <v>6.837315580476262</v>
+        <v>6.794176033488068</v>
       </c>
       <c r="N29" t="n">
-        <v>79.2963905973363</v>
+        <v>78.35614861403897</v>
       </c>
       <c r="O29" t="n">
-        <v>8.904852081721307</v>
+        <v>8.851900847503828</v>
       </c>
       <c r="P29" t="n">
-        <v>372.0633719133526</v>
+        <v>371.9088547638619</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -30044,7 +30464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD286"/>
+  <dimension ref="A1:AD290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67092,6 +67512,606 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>-36.66845094187384,175.55870455924827</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>-36.66952027283617,175.55709804989914</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>-36.670158449885946,175.55665556323962</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>-36.67082471410421,175.5563109788714</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>-36.67147678502437,175.55598466929203</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>-36.67215823177024,175.55576146243217</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>-36.672862667869595,175.55552896560457</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>-36.67356882945943,175.55530255885876</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>-36.67428363551526,175.55518736869848</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>-36.67500401694847,175.55514394044758</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>-36.67572077404088,175.55503706674315</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>-36.67643784122601,175.5549179370753</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>-36.677153909478854,175.55480237749907</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>-36.67787961274694,175.55480163658152</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>-36.67860510220565,175.55481931368345</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>-36.67932259980816,175.55494809668826</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>-36.68003795319252,175.55505373919635</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>-36.680740603724175,175.5552731948197</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>-36.681434415909465,175.5554795955734</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>-36.68213516425797,175.5556649529227</t>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t>-36.68284593603063,175.55583242528763</t>
+        </is>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>-36.68351890295148,175.55616459169423</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>-36.684147327790996,175.5565144836055</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>-36.68476671993526,175.5568886375663</t>
+        </is>
+      </c>
+      <c r="AA287" t="inlineStr">
+        <is>
+          <t>-36.68537895109034,175.55736948771258</t>
+        </is>
+      </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t>-36.68586369433685,175.5580105990442</t>
+        </is>
+      </c>
+      <c r="AC287" t="inlineStr">
+        <is>
+          <t>-36.68621843634494,175.55875126812762</t>
+        </is>
+      </c>
+      <c r="AD287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-36.66845719500831,175.5587263516982</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>-36.66949563066111,175.55701217360397</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-36.67015194595757,175.55663289750512</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>-36.670810112560716,175.55626009344158</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>-36.67146894612953,175.55594375955113</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>-36.672155820269985,175.5557344508813</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-36.67286068969848,175.55550353460904</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>-36.67357487372694,175.5553802626431</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>-36.674283988555885,175.5551919073127</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>-36.67500134783001,175.55510962649058</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>-36.67572092501041,175.55503938209282</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>-36.67643536218277,175.55487001681</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>-36.67715350111176,175.55479434052359</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>-36.67787957407787,175.55479951201986</t>
+        </is>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>-36.67860605218707,175.55480302642945</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>-36.67932301984802,175.5549439912385</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>-36.6800417449307,175.55501667885179</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>-36.6807428806451,175.55525427823625</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>-36.68144178200772,175.5554394626015</t>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>-36.68214629058698,175.5556164739171</t>
+        </is>
+      </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>-36.682857218768405,175.55578326456302</t>
+        </is>
+      </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>-36.6835322102954,175.55610660955918</t>
+        </is>
+      </c>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>-36.68414538012411,175.55651936663745</t>
+        </is>
+      </c>
+      <c r="Z288" t="inlineStr">
+        <is>
+          <t>-36.68477882430207,175.55686922970702</t>
+        </is>
+      </c>
+      <c r="AA288" t="inlineStr">
+        <is>
+          <t>-36.68536378436059,175.5573930361752</t>
+        </is>
+      </c>
+      <c r="AB288" t="inlineStr">
+        <is>
+          <t>-36.685845473871034,175.55803153425796</t>
+        </is>
+      </c>
+      <c r="AC288" t="inlineStr">
+        <is>
+          <t>-36.686241636845224,175.55873176381147</t>
+        </is>
+      </c>
+      <c r="AD288" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-36.66813708794153,175.55761078721028</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-36.6687875202299,175.55721096858062</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-36.66950013069157,175.55702785588187</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-36.670157987787604,175.55665395285862</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>-36.670837490779796,175.55635550483456</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-36.671493546868184,175.5560721465292</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>-36.67216736167389,175.5558637283982</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>-36.67287677853601,175.55571037175164</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>-36.673581697279694,175.55546798555105</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>-36.67429567476794,175.55534214402402</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>-36.675011267547994,175.5552371541881</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>-36.67572989866922,175.55517700820107</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>-36.67644270109524,175.55501188014756</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>-36.677162766579194,175.5549766946396</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>-36.67788263825254,175.55496787082595</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>-36.67859658480756,175.55496534116284</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>-36.67929324208126,175.55523503420957</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>-36.68001270492046,175.55530051215896</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>-36.680712042095465,175.5555104816777</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>-36.68140136838715,175.55565964855805</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>-36.682071187492795,175.55594370691261</t>
+        </is>
+      </c>
+      <c r="W289" t="inlineStr">
+        <is>
+          <t>-36.6827452546194,175.5562711060787</t>
+        </is>
+      </c>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>-36.68347789443283,175.5563432711993</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>-36.68410700933393,175.55661556661056</t>
+        </is>
+      </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>-36.68472978780853,175.55694785360922</t>
+        </is>
+      </c>
+      <c r="AA289" t="inlineStr">
+        <is>
+          <t>-36.68533109397902,175.55744379249583</t>
+        </is>
+      </c>
+      <c r="AB289" t="inlineStr">
+        <is>
+          <t>-36.68582609992852,175.5580537947951</t>
+        </is>
+      </c>
+      <c r="AC289" t="inlineStr">
+        <is>
+          <t>-36.686215004759454,175.55875415300943</t>
+        </is>
+      </c>
+      <c r="AD289" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-36.66809455819613,175.55746257569285</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-36.668785801410536,175.55720497866741</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>-36.66944892436444,175.5568494061094</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-36.67013141925393,175.5565613635074</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-36.67081563932865,175.55627935385718</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>-36.6714799539352,175.55600120727453</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>-36.67215749740454,175.55575323669225</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>-36.672863389477335,175.55553824247573</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>-36.67357192087487,175.55534230133756</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>-36.674290610366576,175.55527703630685</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>-36.6750092945396,175.55521178908808</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>-36.675719461722394,175.55501694035246</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>-36.6764398102038,175.55495599797064</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>-36.67716079388833,175.5549378695484</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>-36.677881612940645,175.55491153436284</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>-36.678598536862566,175.55493187421183</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>-36.67931486877937,175.5550236591465</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>-36.680023455932684,175.55519543394695</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>-36.68074045725548,175.5552744116759</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>-36.68143483625783,175.55547730537683</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>-36.68211832659626,175.55573831683301</t>
+        </is>
+      </c>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>-36.68278838635358,175.55608317701402</t>
+        </is>
+      </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>-36.683500756529035,175.55624365820728</t>
+        </is>
+      </c>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>-36.68414090220304,175.55653059331405</t>
+        </is>
+      </c>
+      <c r="Z290" t="inlineStr">
+        <is>
+          <t>-36.68479306761394,175.55684639229915</t>
+        </is>
+      </c>
+      <c r="AA290" t="inlineStr">
+        <is>
+          <t>-36.68538017018015,175.55736759490497</t>
+        </is>
+      </c>
+      <c r="AB290" t="inlineStr">
+        <is>
+          <t>-36.68588800542896,175.5579826657133</t>
+        </is>
+      </c>
+      <c r="AC290" t="inlineStr">
+        <is>
+          <t>-36.686237160864685,175.55873552670295</t>
+        </is>
+      </c>
+      <c r="AD290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0150/nzd0150.xlsx
+++ b/data/nzd0150/nzd0150.xlsx
@@ -28184,7 +28184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28275,35 +28275,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28356,27 +28361,28 @@
       <c r="P2" t="n">
         <v>563.5986476817457</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.55356699159435 -36.66697662409318, 175.56327043259063 -36.66976096426742)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.5535669915944</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.66697662409318</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.5632704325906</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.66976096426742</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.5584187120925</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.6683687941803</v>
       </c>
     </row>
@@ -28427,27 +28433,28 @@
       <c r="P3" t="n">
         <v>454.472924110735</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.55325047169757 -36.667650962623256, 175.56295396277065 -36.670435308718965)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.5532504716976</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.66765096262326</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.5629539627706</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.67043530871896</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.5581022172341</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.66904313567111</v>
       </c>
     </row>
@@ -28504,27 +28511,28 @@
       <c r="P4" t="n">
         <v>347.475403931915</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.55293395180058 -36.66832529524416, 175.56263749295113 -36.67110964726198)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.5529339518006</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.66832529524416</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.5626374929511</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.67110964726198</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.5577857223759</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.66971747125307</v>
       </c>
     </row>
@@ -28581,27 +28589,28 @@
       <c r="P5" t="n">
         <v>351.1117046991219</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.5526174319032 -36.66899962195596, 175.56232102313217 -36.671783979896134)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.5526174319032</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.66899962195596</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.5623210231322</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.67178397989613</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.5574692275177</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.67039180092605</v>
       </c>
     </row>
@@ -28658,27 +28667,28 @@
       <c r="P6" t="n">
         <v>363.1921055588169</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.55230091200562 -36.6696739427586, 175.56200455331384 -36.67245830662158)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.5523009120056</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.6696739427586</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.5620045533138</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.67245830662158</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.5571527326597</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.67106612469009</v>
       </c>
     </row>
@@ -28735,27 +28745,28 @@
       <c r="P7" t="n">
         <v>375.5792108081481</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.55185858984416 -36.67068608906752, 175.56188083018466 -36.67260640857655)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.5518585898442</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.67068608906752</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.5618808301847</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.67260640857655</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.5568697100144</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.67164624882204</v>
       </c>
     </row>
@@ -28812,27 +28823,28 @@
       <c r="P8" t="n">
         <v>370.4562901107242</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.55164527307616 -36.67179067936311, 175.56188516240968 -36.67270477196724)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.5516452730762</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.67179067936311</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.5618851624097</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.67270477196724</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.5567652177429</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.67224772566517</v>
       </c>
     </row>
@@ -28889,27 +28901,28 @@
       <c r="P9" t="n">
         <v>365.4921417209933</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.5515372142782 -36.67255209805767, 175.56179220742288 -36.67334968987472)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.5515372142782</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.67255209805767</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.5617922074229</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.67334968987472</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.5566647108506</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.6729508939662</v>
       </c>
     </row>
@@ -28966,27 +28979,28 @@
       <c r="P10" t="n">
         <v>356.4115013545062</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.55143519297792 -36.673267936846685, 175.56169024811126 -36.67406552891659)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.5514351929779</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.67326793684668</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.5616902481113</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.67406552891659</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.5565627205446</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.67366673288164</v>
       </c>
     </row>
@@ -29043,27 +29057,28 @@
       <c r="P11" t="n">
         <v>351.812770914122</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.55133317167716 -36.673983768975916, 175.56158828880072 -36.67478136129877)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.5513331716772</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.67398376897592</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.5615882888007</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.67478136129877</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.5564607302389</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.67438256513734</v>
       </c>
     </row>
@@ -29120,27 +29135,28 @@
       <c r="P12" t="n">
         <v>350.1403441090919</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.55123115037588 -36.6746995944452, 175.56148632949123 -36.67549718702122)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.5512311503759</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.6746995944452</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.5614863294912</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.67549718702122</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.5563587399336</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.67509839073321</v>
       </c>
     </row>
@@ -29197,27 +29213,28 @@
       <c r="P13" t="n">
         <v>347.6340709101426</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.5511234232463 -36.67546552419811, 175.56139282099682 -36.67613502051742)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.5511234232463</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.67546552419811</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.5613928209968</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.67613502051742</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.5562581221216</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.67580027235776</v>
       </c>
     </row>
@@ -29274,27 +29291,28 @@
       <c r="P14" t="n">
         <v>348.7230729836684</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.5510441032872 -36.676237374445165, 175.5613260085953 -36.67676917196666)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.5510441032872</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.67623737444517</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.5613260085953</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.67676917196666</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.5561850559413</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.67650327320591</v>
       </c>
     </row>
@@ -29351,27 +29369,28 @@
       <c r="P15" t="n">
         <v>348.5373548041149</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.55097156722854 -36.67695919977333, 175.56125428297923 -36.677481560358984)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.5509715672285</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.67695919977333</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.5612542829792</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.67748156035898</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.5561129251039</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.67722038006616</v>
       </c>
     </row>
@@ -29428,27 +29447,28 @@
       <c r="P16" t="n">
         <v>350.3556385850372</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.5508919142586 -36.67780838766737, 175.5611925552208 -36.67799576149631)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.5508919142586</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.67780838766737</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.5611925552208</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.67799576149631</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.5560422347397</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.67790207458184</v>
       </c>
     </row>
@@ -29505,27 +29525,28 @@
       <c r="P17" t="n">
         <v>349.7691802359986</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.55090098660048 -36.6788335804761, 175.56117734040438 -36.67823408804449)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.5509009866005</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.6788335804761</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.5611773404044</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.67823408804449</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.5560391635024</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.67853383426029</v>
       </c>
     </row>
@@ -29582,27 +29603,28 @@
       <c r="P18" t="n">
         <v>345.2418340108756</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.55101993370164 -36.679724434457455, 175.561240965193 -36.67867858816659)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.5510199337016</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.67972443445746</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.561240965193</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.67867858816659</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.5561304494473</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.67920151131202</v>
       </c>
     </row>
@@ -29659,27 +29681,28 @@
       <c r="P19" t="n">
         <v>346.2011081698172</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.5511177733122 -36.68044058566969, 175.5613388648557 -36.67939473454955)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.5511177733122</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.68044058566969</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.5613388648557</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.67939473454955</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.556228319084</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.67991766010962</v>
       </c>
     </row>
@@ -29736,27 +29759,28 @@
       <c r="P20" t="n">
         <v>351.1560656857951</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.5512275608852 -36.68122749103196, 175.5614175984191 -36.68000085882277)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.5512275608852</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.68122749103196</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.5614175984191</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.68000085882277</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.5563225796521</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.68061417492737</v>
       </c>
     </row>
@@ -29813,27 +29837,28 @@
       <c r="P21" t="n">
         <v>354.3792197287851</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.5514202336405 -36.68217940559559, 175.56146554748116 -36.680335574740795)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.5514202336405</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-36.68217940559559</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.5614655474812</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-36.68033557474079</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.5564428905608</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-36.68125749016819</v>
       </c>
     </row>
@@ -29890,27 +29915,28 @@
       <c r="P22" t="n">
         <v>351.6179051646292</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (175.55170486413994 -36.68304396228534, 175.5616129554492 -36.680769876718415)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>175.5517048641399</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-36.68304396228534</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>175.5616129554492</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-36.68076987671841</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>175.5566589097946</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-36.68190691950188</v>
       </c>
     </row>
@@ -29967,27 +29993,28 @@
       <c r="P23" t="n">
         <v>343.0436823976875</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (175.55193630913536 -36.6837400501705, 175.56184445234234 -36.68146595688174)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>175.5519363091354</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-36.6837400501705</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>175.5618444523423</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-36.68146595688174</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>175.5568903807388</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-36.68260300352612</v>
       </c>
     </row>
@@ -30044,27 +30071,28 @@
       <c r="P24" t="n">
         <v>352.6638488284532</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (175.55216775413044 -36.684436131756286, 175.56207594923626 -36.68216203074538)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>175.5521677541304</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-36.68443613175629</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>175.5620759492363</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-36.68216203074538</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>175.5571218516833</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-36.68329908125084</v>
       </c>
     </row>
@@ -30121,27 +30149,28 @@
       <c r="P25" t="n">
         <v>360.3234374527395</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (175.55266256527935 -36.68568362889378, 175.56189342048216 -36.68200168427078)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>175.5526625652793</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-36.68568362889378</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>175.5618934204822</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-36.68200168427078</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>175.5572779928808</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-36.68384265658228</v>
       </c>
     </row>
@@ -30198,27 +30227,28 @@
       <c r="P26" t="n">
         <v>346.2341517557387</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (175.55361060692246 -36.686811078031866, 175.56175283071892 -36.681732787230715)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>175.5536106069225</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-36.68681107803187</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>175.5617528307189</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-36.68173278723071</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>175.5576817188207</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-36.68427193263129</v>
       </c>
     </row>
@@ -30275,27 +30305,28 @@
       <c r="P27" t="n">
         <v>344.4979942499767</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (175.55419877549397 -36.68742099972603, 175.56224130824452 -36.68224096344931)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>175.554198775494</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-36.68742099972603</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>175.5622413082445</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-36.68224096344931</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>175.5582200418692</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-36.68483098158767</v>
       </c>
     </row>
@@ -30352,27 +30383,28 @@
       <c r="P28" t="n">
         <v>360.2039464665222</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (175.55515783921228 -36.68834641451697, 175.56215059861756 -36.68226031206502)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>175.5551578392123</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-36.68834641451697</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>175.5621505986176</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-36.68226031206502</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>175.5586542189149</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-36.685303363291</v>
       </c>
     </row>
@@ -30429,27 +30461,28 @@
       <c r="P29" t="n">
         <v>371.9088547638619</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (175.55636155880862 -36.689060886896414, 175.56213258444427 -36.682196090891125)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>175.5563615588086</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-36.68906088689641</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>175.5621325844443</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-36.68219609089113</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>175.5592470716264</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-36.68562848889377</v>
       </c>
     </row>

--- a/data/nzd0150/nzd0150.xlsx
+++ b/data/nzd0150/nzd0150.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD290"/>
+  <dimension ref="A1:AD293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24926,12 +24926,8 @@
           <t>2025-01-06 22:06:06+00:00</t>
         </is>
       </c>
-      <c r="B289" t="n">
-        <v>383.8514285714285</v>
-      </c>
-      <c r="C289" t="n">
-        <v>375.9414285714286</v>
-      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
       <c r="D289" t="n">
         <v>388.6014285714285</v>
       </c>
@@ -25022,12 +25018,8 @@
           <t>2025-01-14 22:06:13+00:00</t>
         </is>
       </c>
-      <c r="B290" t="n">
-        <v>369.7828571428572</v>
-      </c>
-      <c r="C290" t="n">
-        <v>375.3728571428572</v>
-      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr"/>
       <c r="D290" t="n">
         <v>371.6628571428572</v>
       </c>
@@ -25107,6 +25099,276 @@
         <v>378.52</v>
       </c>
       <c r="AD290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>465.1428571428572</v>
+      </c>
+      <c r="C291" t="n">
+        <v>425.9428571428572</v>
+      </c>
+      <c r="D291" t="n">
+        <v>398.3328571428572</v>
+      </c>
+      <c r="E291" t="n">
+        <v>388.8128571428572</v>
+      </c>
+      <c r="F291" t="n">
+        <v>380.7354545454546</v>
+      </c>
+      <c r="G291" t="n">
+        <v>376.62</v>
+      </c>
+      <c r="H291" t="n">
+        <v>374.03</v>
+      </c>
+      <c r="I291" t="n">
+        <v>358.9788888888889</v>
+      </c>
+      <c r="J291" t="n">
+        <v>360.06</v>
+      </c>
+      <c r="K291" t="n">
+        <v>350.3423076923077</v>
+      </c>
+      <c r="L291" t="n">
+        <v>354.6723076923077</v>
+      </c>
+      <c r="M291" t="n">
+        <v>359.3323076923077</v>
+      </c>
+      <c r="N291" t="n">
+        <v>356.4966666666667</v>
+      </c>
+      <c r="O291" t="n">
+        <v>357.6554545454546</v>
+      </c>
+      <c r="P291" t="n">
+        <v>361.6554545454546</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>362.87</v>
+      </c>
+      <c r="R291" t="n">
+        <v>362.8</v>
+      </c>
+      <c r="S291" t="n">
+        <v>366.97</v>
+      </c>
+      <c r="T291" t="n">
+        <v>376.47</v>
+      </c>
+      <c r="U291" t="n">
+        <v>382.48</v>
+      </c>
+      <c r="V291" t="n">
+        <v>374.8633333333333</v>
+      </c>
+      <c r="W291" t="n">
+        <v>367.58</v>
+      </c>
+      <c r="X291" t="n">
+        <v>373.02</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>385.6257142857143</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>374.9988888888889</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>368.7888888888889</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>381.9188888888889</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>397.12</v>
+      </c>
+      <c r="AD291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="n">
+        <v>385.5971428571429</v>
+      </c>
+      <c r="E292" t="n">
+        <v>389.5471428571428</v>
+      </c>
+      <c r="F292" t="n">
+        <v>385.2527272727273</v>
+      </c>
+      <c r="G292" t="n">
+        <v>392.07</v>
+      </c>
+      <c r="H292" t="n">
+        <v>380.01</v>
+      </c>
+      <c r="I292" t="n">
+        <v>379.0177777777778</v>
+      </c>
+      <c r="J292" t="n">
+        <v>360.46</v>
+      </c>
+      <c r="K292" t="n">
+        <v>359.8984615384616</v>
+      </c>
+      <c r="L292" t="n">
+        <v>366.7884615384616</v>
+      </c>
+      <c r="M292" t="n">
+        <v>357.1384615384616</v>
+      </c>
+      <c r="N292" t="n">
+        <v>360.0133333333333</v>
+      </c>
+      <c r="O292" t="n">
+        <v>362.1127272727272</v>
+      </c>
+      <c r="P292" t="n">
+        <v>367.8827272727273</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>368.56</v>
+      </c>
+      <c r="R292" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="S292" t="n">
+        <v>378.42</v>
+      </c>
+      <c r="T292" t="n">
+        <v>374.76</v>
+      </c>
+      <c r="U292" t="n">
+        <v>385.8</v>
+      </c>
+      <c r="V292" t="n">
+        <v>381.4166666666667</v>
+      </c>
+      <c r="W292" t="n">
+        <v>389.54</v>
+      </c>
+      <c r="X292" t="n">
+        <v>388.14</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>393.6442857142857</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>368.4677777777778</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>360.5677777777778</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>369.7277777777778</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>385.47</v>
+      </c>
+      <c r="AD292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="n">
+        <v>383.22</v>
+      </c>
+      <c r="H293" t="n">
+        <v>369.2</v>
+      </c>
+      <c r="I293" t="n">
+        <v>372.5166666666667</v>
+      </c>
+      <c r="J293" t="n">
+        <v>355.87</v>
+      </c>
+      <c r="K293" t="n">
+        <v>357.0353846153847</v>
+      </c>
+      <c r="L293" t="n">
+        <v>363.3953846153846</v>
+      </c>
+      <c r="M293" t="n">
+        <v>352.9153846153847</v>
+      </c>
+      <c r="N293" t="n">
+        <v>357.92</v>
+      </c>
+      <c r="O293" t="n">
+        <v>359.5445454545454</v>
+      </c>
+      <c r="P293" t="n">
+        <v>363.5645454545455</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>364.19</v>
+      </c>
+      <c r="R293" t="n">
+        <v>358.36</v>
+      </c>
+      <c r="S293" t="n">
+        <v>366.3</v>
+      </c>
+      <c r="T293" t="n">
+        <v>367.23</v>
+      </c>
+      <c r="U293" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="V293" t="n">
+        <v>378.06</v>
+      </c>
+      <c r="W293" t="n">
+        <v>375.37</v>
+      </c>
+      <c r="X293" t="inlineStr"/>
+      <c r="Y293" t="inlineStr"/>
+      <c r="Z293" t="n">
+        <v>363.2566666666667</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>359.5266666666667</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>367.0666666666667</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>379.28</v>
+      </c>
+      <c r="AD293" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25123,7 +25385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28171,6 +28433,36 @@
       </c>
       <c r="B304" t="n">
         <v>0.36</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -28338,28 +28630,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-7.931618345253362</v>
+        <v>-7.81446211093831</v>
       </c>
       <c r="J2" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K2" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5187689717013768</v>
+        <v>0.4999398759904106</v>
       </c>
       <c r="M2" t="n">
-        <v>38.27058220574607</v>
+        <v>39.23567410657525</v>
       </c>
       <c r="N2" t="n">
-        <v>2467.79495215885</v>
+        <v>2574.790761787458</v>
       </c>
       <c r="O2" t="n">
-        <v>49.67690562181637</v>
+        <v>50.74239609820824</v>
       </c>
       <c r="P2" t="n">
-        <v>563.5986476817457</v>
+        <v>562.1453926892311</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28410,28 +28702,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-3.312672621057682</v>
+        <v>-3.248375958516734</v>
       </c>
       <c r="J3" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K3" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1900002087057872</v>
+        <v>0.1806903955862623</v>
       </c>
       <c r="M3" t="n">
-        <v>34.57970687095207</v>
+        <v>35.09044949827888</v>
       </c>
       <c r="N3" t="n">
-        <v>2368.217752096607</v>
+        <v>2407.283845570468</v>
       </c>
       <c r="O3" t="n">
-        <v>48.66433757996309</v>
+        <v>49.06407897403627</v>
       </c>
       <c r="P3" t="n">
-        <v>454.472924110735</v>
+        <v>453.7903678469046</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28488,28 +28780,28 @@
         <v>0.1077</v>
       </c>
       <c r="I4" t="n">
-        <v>1.850363105905213</v>
+        <v>1.843573548660191</v>
       </c>
       <c r="J4" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7138829568762184</v>
+        <v>0.7159575315387463</v>
       </c>
       <c r="M4" t="n">
-        <v>6.648193844858334</v>
+        <v>6.651136857878297</v>
       </c>
       <c r="N4" t="n">
-        <v>71.92133784787566</v>
+        <v>71.67172727274587</v>
       </c>
       <c r="O4" t="n">
-        <v>8.480644895753841</v>
+        <v>8.465915619278629</v>
       </c>
       <c r="P4" t="n">
-        <v>347.475403931915</v>
+        <v>347.5428668875317</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28566,28 +28858,28 @@
         <v>0.0882</v>
       </c>
       <c r="I5" t="n">
-        <v>1.571890854177654</v>
+        <v>1.567646006217731</v>
       </c>
       <c r="J5" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K5" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6298869722424314</v>
+        <v>0.6332063614730514</v>
       </c>
       <c r="M5" t="n">
-        <v>6.205942791000397</v>
+        <v>6.163795634550882</v>
       </c>
       <c r="N5" t="n">
-        <v>75.13303354754098</v>
+        <v>74.46442311246699</v>
       </c>
       <c r="O5" t="n">
-        <v>8.667931330342954</v>
+        <v>8.629277090954201</v>
       </c>
       <c r="P5" t="n">
-        <v>351.1117046991219</v>
+        <v>351.1548999086804</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28644,28 +28936,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7574067626527579</v>
+        <v>0.7581992462876965</v>
       </c>
       <c r="J6" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K6" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2823501674442462</v>
+        <v>0.2870234348768952</v>
       </c>
       <c r="M6" t="n">
-        <v>5.549844704201126</v>
+        <v>5.517784972931231</v>
       </c>
       <c r="N6" t="n">
-        <v>71.99759389737855</v>
+        <v>71.34841892319525</v>
       </c>
       <c r="O6" t="n">
-        <v>8.485139592097383</v>
+        <v>8.446799330112871</v>
       </c>
       <c r="P6" t="n">
-        <v>363.1921055588169</v>
+        <v>363.1837799459062</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28722,28 +29014,28 @@
         <v>0.0561</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3274358306247772</v>
+        <v>0.327441933287744</v>
       </c>
       <c r="J7" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K7" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04502173491876649</v>
+        <v>0.04615546970438655</v>
       </c>
       <c r="M7" t="n">
-        <v>6.660899466352397</v>
+        <v>6.643392786899765</v>
       </c>
       <c r="N7" t="n">
-        <v>113.3985772428419</v>
+        <v>112.3786957380006</v>
       </c>
       <c r="O7" t="n">
-        <v>10.6488768066328</v>
+        <v>10.60088183775296</v>
       </c>
       <c r="P7" t="n">
-        <v>375.5792108081481</v>
+        <v>375.5789497171995</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28800,28 +29092,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1284837549167739</v>
+        <v>0.1302077879469452</v>
       </c>
       <c r="J8" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K8" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007503061065378014</v>
+        <v>0.007905517000953988</v>
       </c>
       <c r="M8" t="n">
-        <v>7.496524959174123</v>
+        <v>7.447561809986816</v>
       </c>
       <c r="N8" t="n">
-        <v>110.7130801082274</v>
+        <v>109.5347909578468</v>
       </c>
       <c r="O8" t="n">
-        <v>10.52202832671664</v>
+        <v>10.4658870124728</v>
       </c>
       <c r="P8" t="n">
-        <v>370.4562901107242</v>
+        <v>370.4386508940172</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28878,28 +29170,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07800485122596398</v>
+        <v>0.08517982943380013</v>
       </c>
       <c r="J9" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K9" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002477882222952421</v>
+        <v>0.003013165282939156</v>
       </c>
       <c r="M9" t="n">
-        <v>7.956841012149336</v>
+        <v>7.960915123453591</v>
       </c>
       <c r="N9" t="n">
-        <v>126.4528590691416</v>
+        <v>125.7838897682717</v>
       </c>
       <c r="O9" t="n">
-        <v>11.24512601392895</v>
+        <v>11.21534171428904</v>
       </c>
       <c r="P9" t="n">
-        <v>365.4921417209933</v>
+        <v>365.4183462621622</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28956,28 +29248,28 @@
         <v>0.0568</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009620429880452473</v>
+        <v>0.01539711435826865</v>
       </c>
       <c r="J10" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K10" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L10" t="n">
-        <v>5.484637101693668e-05</v>
+        <v>0.0001443360225238388</v>
       </c>
       <c r="M10" t="n">
-        <v>6.520607848945792</v>
+        <v>6.470876849522681</v>
       </c>
       <c r="N10" t="n">
-        <v>84.442106871859</v>
+        <v>83.42309328132966</v>
       </c>
       <c r="O10" t="n">
-        <v>9.189238644842074</v>
+        <v>9.133624323417822</v>
       </c>
       <c r="P10" t="n">
-        <v>356.4115013545062</v>
+        <v>356.3511398600994</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29034,28 +29326,28 @@
         <v>0.0708</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01609363912939609</v>
+        <v>0.02521907515067904</v>
       </c>
       <c r="J11" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K11" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001875523927711287</v>
+        <v>0.0004706268397152158</v>
       </c>
       <c r="M11" t="n">
-        <v>5.832912549417372</v>
+        <v>5.81533158204858</v>
       </c>
       <c r="N11" t="n">
-        <v>69.97575468048871</v>
+        <v>69.43553922193915</v>
       </c>
       <c r="O11" t="n">
-        <v>8.365151204879007</v>
+        <v>8.332799002852472</v>
       </c>
       <c r="P11" t="n">
-        <v>351.812770914122</v>
+        <v>351.7178252720047</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29112,28 +29404,28 @@
         <v>0.0735</v>
       </c>
       <c r="I12" t="n">
-        <v>0.167126336008331</v>
+        <v>0.1847361399403288</v>
       </c>
       <c r="J12" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K12" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0158726612182023</v>
+        <v>0.01963324354444618</v>
       </c>
       <c r="M12" t="n">
-        <v>6.144292916857357</v>
+        <v>6.16271609392482</v>
       </c>
       <c r="N12" t="n">
-        <v>92.13143111715891</v>
+        <v>91.92590637202285</v>
       </c>
       <c r="O12" t="n">
-        <v>9.59851192201994</v>
+        <v>9.587799871295962</v>
       </c>
       <c r="P12" t="n">
-        <v>350.1403441090919</v>
+        <v>349.9640008057703</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29190,28 +29482,28 @@
         <v>0.0697</v>
       </c>
       <c r="I13" t="n">
-        <v>0.247668889482803</v>
+        <v>0.2536139929014011</v>
       </c>
       <c r="J13" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K13" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05271712430738618</v>
+        <v>0.05636801771504263</v>
       </c>
       <c r="M13" t="n">
-        <v>5.865435093993709</v>
+        <v>5.833929192183706</v>
       </c>
       <c r="N13" t="n">
-        <v>57.93582843698233</v>
+        <v>57.38820628425955</v>
       </c>
       <c r="O13" t="n">
-        <v>7.61155887036173</v>
+        <v>7.575500398274661</v>
       </c>
       <c r="P13" t="n">
-        <v>347.6340709101426</v>
+        <v>347.5744119964997</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29268,28 +29560,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.186415682726389</v>
+        <v>0.1975332674821038</v>
       </c>
       <c r="J14" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K14" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02779175218728291</v>
+        <v>0.03175417187116136</v>
       </c>
       <c r="M14" t="n">
-        <v>6.291537829810576</v>
+        <v>6.264928568254344</v>
       </c>
       <c r="N14" t="n">
-        <v>62.73135081186742</v>
+        <v>62.25562259049923</v>
       </c>
       <c r="O14" t="n">
-        <v>7.92031254508731</v>
+        <v>7.89022322817924</v>
       </c>
       <c r="P14" t="n">
-        <v>348.7230729836684</v>
+        <v>348.6100577310461</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29346,28 +29638,28 @@
         <v>0.0586</v>
       </c>
       <c r="I15" t="n">
-        <v>0.35876546604306</v>
+        <v>0.3637108526055342</v>
       </c>
       <c r="J15" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K15" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07332859869331509</v>
+        <v>0.07699161734763427</v>
       </c>
       <c r="M15" t="n">
-        <v>7.127088618794235</v>
+        <v>7.06785277884254</v>
       </c>
       <c r="N15" t="n">
-        <v>82.13826604984905</v>
+        <v>81.25386355736373</v>
       </c>
       <c r="O15" t="n">
-        <v>9.063016388038204</v>
+        <v>9.014092497715104</v>
       </c>
       <c r="P15" t="n">
-        <v>348.5373548041149</v>
+        <v>348.4866246417757</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29424,28 +29716,28 @@
         <v>0.0599</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4545604155595224</v>
+        <v>0.4605365139119375</v>
       </c>
       <c r="J16" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K16" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1096449846648817</v>
+        <v>0.1148556322940925</v>
       </c>
       <c r="M16" t="n">
-        <v>6.818273582456047</v>
+        <v>6.768531798145551</v>
       </c>
       <c r="N16" t="n">
-        <v>82.78673301032731</v>
+        <v>81.94443221179458</v>
       </c>
       <c r="O16" t="n">
-        <v>9.0987215041635</v>
+        <v>9.052316400336135</v>
       </c>
       <c r="P16" t="n">
-        <v>350.3556385850372</v>
+        <v>350.2941833191731</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29502,28 +29794,28 @@
         <v>0.056</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5347016205843151</v>
+        <v>0.539213231197602</v>
       </c>
       <c r="J17" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K17" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1665255524490808</v>
+        <v>0.1727386284698086</v>
       </c>
       <c r="M17" t="n">
-        <v>6.559960559035128</v>
+        <v>6.505660188113157</v>
       </c>
       <c r="N17" t="n">
-        <v>70.53914151928223</v>
+        <v>69.77880595950845</v>
       </c>
       <c r="O17" t="n">
-        <v>8.398758331996595</v>
+        <v>8.353370933910959</v>
       </c>
       <c r="P17" t="n">
-        <v>349.7691802359986</v>
+        <v>349.7227588495857</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29580,28 +29872,28 @@
         <v>0.0458</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6489796010384815</v>
+        <v>0.6512443513492522</v>
       </c>
       <c r="J18" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K18" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2223377515813248</v>
+        <v>0.2282930391924548</v>
       </c>
       <c r="M18" t="n">
-        <v>6.53915905898317</v>
+        <v>6.498859529155084</v>
       </c>
       <c r="N18" t="n">
-        <v>71.01209171341144</v>
+        <v>70.30440415853565</v>
       </c>
       <c r="O18" t="n">
-        <v>8.426867253814518</v>
+        <v>8.384772159011575</v>
       </c>
       <c r="P18" t="n">
-        <v>345.2418340108756</v>
+        <v>345.2184061269907</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29658,28 +29950,28 @@
         <v>0.0429</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6358306730167123</v>
+        <v>0.6567204940820395</v>
       </c>
       <c r="J19" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K19" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1903697358790531</v>
+        <v>0.2029843811550591</v>
       </c>
       <c r="M19" t="n">
-        <v>7.048845357526507</v>
+        <v>7.061034613675658</v>
       </c>
       <c r="N19" t="n">
-        <v>83.20449761426924</v>
+        <v>83.32190632740141</v>
       </c>
       <c r="O19" t="n">
-        <v>9.121649939252725</v>
+        <v>9.128083387404029</v>
       </c>
       <c r="P19" t="n">
-        <v>346.2011081698172</v>
+        <v>345.9849411080575</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29736,28 +30028,28 @@
         <v>0.0418</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6430099237413275</v>
+        <v>0.6558552835421642</v>
       </c>
       <c r="J20" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K20" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1748715441845049</v>
+        <v>0.1839754665565632</v>
       </c>
       <c r="M20" t="n">
-        <v>7.413600926063695</v>
+        <v>7.39135796236532</v>
       </c>
       <c r="N20" t="n">
-        <v>95.48879411150327</v>
+        <v>94.86870534932096</v>
       </c>
       <c r="O20" t="n">
-        <v>9.771836782893136</v>
+        <v>9.740056742613</v>
       </c>
       <c r="P20" t="n">
-        <v>351.1560656857951</v>
+        <v>351.0238268710005</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -29814,28 +30106,28 @@
         <v>0.0451</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6870811675862261</v>
+        <v>0.711471327722963</v>
       </c>
       <c r="J21" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K21" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1661028745194151</v>
+        <v>0.1783744214867607</v>
       </c>
       <c r="M21" t="n">
-        <v>8.45245018187385</v>
+        <v>8.452840832288922</v>
       </c>
       <c r="N21" t="n">
-        <v>117.1223380972065</v>
+        <v>116.9973673947149</v>
       </c>
       <c r="O21" t="n">
-        <v>10.82230742943512</v>
+        <v>10.81653213348506</v>
       </c>
       <c r="P21" t="n">
-        <v>354.3792197287851</v>
+        <v>354.1282547916901</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29892,28 +30184,28 @@
         <v>0.0319</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6223534618956272</v>
+        <v>0.6484155606889587</v>
       </c>
       <c r="J22" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K22" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09692089797255732</v>
+        <v>0.1061981994004961</v>
       </c>
       <c r="M22" t="n">
-        <v>10.5063487156193</v>
+        <v>10.49481580966116</v>
       </c>
       <c r="N22" t="n">
-        <v>176.521745323437</v>
+        <v>175.7987387712529</v>
       </c>
       <c r="O22" t="n">
-        <v>13.28614862642433</v>
+        <v>13.25891167371036</v>
       </c>
       <c r="P22" t="n">
-        <v>351.6179051646292</v>
+        <v>351.3488318343232</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29970,28 +30262,28 @@
         <v>0.0232</v>
       </c>
       <c r="I23" t="n">
-        <v>1.040070818415319</v>
+        <v>1.059660758182716</v>
       </c>
       <c r="J23" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K23" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2386481471011582</v>
+        <v>0.248780068207451</v>
       </c>
       <c r="M23" t="n">
-        <v>10.15774666021744</v>
+        <v>10.14741522382858</v>
       </c>
       <c r="N23" t="n">
-        <v>172.2643789222898</v>
+        <v>171.8790352526711</v>
       </c>
       <c r="O23" t="n">
-        <v>13.1249525302871</v>
+        <v>13.11026449972201</v>
       </c>
       <c r="P23" t="n">
-        <v>343.0436823976875</v>
+        <v>342.8424883872897</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30048,28 +30340,28 @@
         <v>0.0254</v>
       </c>
       <c r="I24" t="n">
-        <v>0.80431376540971</v>
+        <v>0.8160700136814879</v>
       </c>
       <c r="J24" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K24" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1894696306725678</v>
+        <v>0.195770259538454</v>
       </c>
       <c r="M24" t="n">
-        <v>9.055392486844768</v>
+        <v>9.041852011117722</v>
       </c>
       <c r="N24" t="n">
-        <v>138.3181022175768</v>
+        <v>138.0934113365754</v>
       </c>
       <c r="O24" t="n">
-        <v>11.76087166062009</v>
+        <v>11.7513153024066</v>
       </c>
       <c r="P24" t="n">
-        <v>352.6638488284532</v>
+        <v>352.54354235836</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30126,28 +30418,28 @@
         <v>0.0362</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8191894908198591</v>
+        <v>0.832784131804914</v>
       </c>
       <c r="J25" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K25" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L25" t="n">
-        <v>0.236917843713508</v>
+        <v>0.2450625552391162</v>
       </c>
       <c r="M25" t="n">
-        <v>7.960531873752879</v>
+        <v>7.96021798079555</v>
       </c>
       <c r="N25" t="n">
-        <v>105.3238880945148</v>
+        <v>105.1561946795216</v>
       </c>
       <c r="O25" t="n">
-        <v>10.26274271793436</v>
+        <v>10.25456945363976</v>
       </c>
       <c r="P25" t="n">
-        <v>360.3234374527395</v>
+        <v>360.1821430067125</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30204,28 +30496,28 @@
         <v>0.0466</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6872632417663728</v>
+        <v>0.699593418263592</v>
       </c>
       <c r="J26" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K26" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2256244120699883</v>
+        <v>0.2353844192101163</v>
       </c>
       <c r="M26" t="n">
-        <v>6.850326485116717</v>
+        <v>6.833673717624686</v>
       </c>
       <c r="N26" t="n">
-        <v>78.27711854978703</v>
+        <v>77.92814317585044</v>
       </c>
       <c r="O26" t="n">
-        <v>8.847435704755759</v>
+        <v>8.827691837385945</v>
       </c>
       <c r="P26" t="n">
-        <v>346.2341517557387</v>
+        <v>346.1051456932199</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30282,28 +30574,28 @@
         <v>0.0468</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4779853629791038</v>
+        <v>0.493439262840662</v>
       </c>
       <c r="J27" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K27" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1430118770665725</v>
+        <v>0.1532715524462341</v>
       </c>
       <c r="M27" t="n">
-        <v>6.285169017877662</v>
+        <v>6.278423652237533</v>
       </c>
       <c r="N27" t="n">
-        <v>65.79322107422499</v>
+        <v>65.66083676572703</v>
       </c>
       <c r="O27" t="n">
-        <v>8.111302057883494</v>
+        <v>8.103137464323744</v>
       </c>
       <c r="P27" t="n">
-        <v>344.4979942499767</v>
+        <v>344.3367550501292</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30360,28 +30652,28 @@
         <v>0.0456</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3070558585869481</v>
+        <v>0.3192654698471508</v>
       </c>
       <c r="J28" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K28" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05410480737054935</v>
+        <v>0.05925441394316189</v>
       </c>
       <c r="M28" t="n">
-        <v>6.856719883510132</v>
+        <v>6.839710141973137</v>
       </c>
       <c r="N28" t="n">
-        <v>80.02970234084489</v>
+        <v>79.84492511716861</v>
       </c>
       <c r="O28" t="n">
-        <v>8.94593216723919</v>
+        <v>8.93559875538112</v>
       </c>
       <c r="P28" t="n">
-        <v>360.2039464665222</v>
+        <v>360.0777365489557</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30438,28 +30730,28 @@
         <v>0.0456</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1469783274645743</v>
+        <v>0.1765211768552468</v>
       </c>
       <c r="J29" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K29" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01311657780251241</v>
+        <v>0.01881379876144718</v>
       </c>
       <c r="M29" t="n">
-        <v>6.794176033488068</v>
+        <v>6.84078322741385</v>
       </c>
       <c r="N29" t="n">
-        <v>78.35614861403897</v>
+        <v>79.60317948873751</v>
       </c>
       <c r="O29" t="n">
-        <v>8.851900847503828</v>
+        <v>8.922061392343</v>
       </c>
       <c r="P29" t="n">
-        <v>371.9088547638619</v>
+        <v>371.6011549523699</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30497,7 +30789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD290"/>
+  <dimension ref="A1:AD293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67847,16 +68139,8 @@
           <t>2025-01-06 22:06:06+00:00</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>-36.66813708794153,175.55761078721028</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>-36.6687875202299,175.55721096858062</t>
-        </is>
-      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
           <t>-36.66950013069157,175.55702785588187</t>
@@ -67999,16 +68283,8 @@
           <t>2025-01-14 22:06:13+00:00</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>-36.66809455819613,175.55746257569285</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>-36.668785801410536,175.55720497866741</t>
-        </is>
-      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
           <t>-36.66944892436444,175.5568494061094</t>
@@ -68140,6 +68416,426 @@
         </is>
       </c>
       <c r="AD290" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>-36.668382830807055,175.55846719031967</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-36.66893867578328,175.5577377357719</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-36.669529549263984,175.55713037768712</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-36.67017510268612,175.55671359716848</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-36.67082501091683,175.5563120132451</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>-36.67147134366538,175.5559562718381</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>-36.672161933361444,175.5558029246096</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>-36.6728630161657,175.55553344324102</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>-36.67357979223347,175.5554434943827</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>-36.67428721054308,175.55523332859136</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>-36.67500678663957,175.55517954749547</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>-36.67572678427034,175.5551292433893</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>-36.67644328427454,175.55502315331674</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>-36.67716211537608,175.55496387809734</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>-36.67788205659206,175.55493591091258</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>-36.67859753480884,175.55494905391365</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>-36.679312632334884,175.55504551788658</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>-36.6800240462707,175.5551896640758</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>-36.680726276364105,175.55539222545548</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>-36.68141387883735,175.55559148799932</t>
+        </is>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>-36.68211854056487,175.55573738454504</t>
+        </is>
+      </c>
+      <c r="W291" t="inlineStr">
+        <is>
+          <t>-36.682832604104924,175.55589051452657</t>
+        </is>
+      </c>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>-36.683515248982104,175.55618051257355</t>
+        </is>
+      </c>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>-36.68414190173908,175.55652808735957</t>
+        </is>
+      </c>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>-36.68474265828396,175.5569272174242</t>
+        </is>
+      </c>
+      <c r="AA291" t="inlineStr">
+        <is>
+          <t>-36.68534602315176,175.55742061290783</t>
+        </is>
+      </c>
+      <c r="AB291" t="inlineStr">
+        <is>
+          <t>-36.68582109664581,175.55805954353266</t>
+        </is>
+      </c>
+      <c r="AC291" t="inlineStr">
+        <is>
+          <t>-36.68609840541575,175.5588521761263</t>
+        </is>
+      </c>
+      <c r="AD291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-36.669491048574166,175.55699620537462</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-36.670177322481436,175.55672133302076</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-36.67083866703559,175.5563596040205</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>-36.67150355390772,175.55612437176183</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>-36.67216786778552,175.55586939749034</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>-36.672880368215736,175.55575652110744</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>-36.67358013860587,175.55544794732234</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>-36.67429548559458,175.5553397120113</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>-36.67501727846222,175.55531443125773</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>-36.67572518960116,175.55510478643467</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>-36.67644531480791,175.55506240478118</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>-36.67716464335638,175.55501363226017</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>-36.67788332387565,175.55500554367546</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>-36.67859383239409,175.55501252955992</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>-36.679307773446894,175.55509300793597</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>-36.68001104741728,175.55531671217588</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>-36.68072855330371,175.55537330888015</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>-36.68140723329097,175.55562769489114</t>
+        </is>
+      </c>
+      <c r="V292" t="inlineStr">
+        <is>
+          <t>-36.682102361226285,175.55580787984417</t>
+        </is>
+      </c>
+      <c r="W292" t="inlineStr">
+        <is>
+          <t>-36.68277838732245,175.55612674387515</t>
+        </is>
+      </c>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>-36.68347791912197,175.55634316362588</t>
+        </is>
+      </c>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>-36.68410984230937,175.55660846402589</t>
+        </is>
+      </c>
+      <c r="Z292" t="inlineStr">
+        <is>
+          <t>-36.68477868333984,175.55686945572262</t>
+        </is>
+      </c>
+      <c r="AA292" t="inlineStr">
+        <is>
+          <t>-36.685392279803935,175.55734879301303</t>
+        </is>
+      </c>
+      <c r="AB292" t="inlineStr">
+        <is>
+          <t>-36.68590170750756,175.5579669220785</t>
+        </is>
+      </c>
+      <c r="AC292" t="inlineStr">
+        <is>
+          <t>-36.68618531408242,175.558779113498</t>
+        </is>
+      </c>
+      <c r="AD292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>-36.67148510341031,175.55602808149874</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>-36.672157140145366,175.555749234981</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>-36.67287473882788,175.55568414912264</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>-36.67357616397225,175.5553968498418</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>-36.67429300635314,175.5553078389443</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>-36.67501434028786,175.55527665763577</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>-36.67572211990464,175.55505770765654</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>-36.67644410611284,175.55503903992826</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>-36.67716318679267,175.55498496501335</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>-36.6778824451067,175.55495725818295</t>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>-36.67859667590366,175.55496377937186</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>-36.679317672843744,175.55499625250073</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>-36.68002480689815,175.5551822298186</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>-36.680738579791964,175.55529000955946</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>-36.68142384713668,175.55553717764872</t>
+        </is>
+      </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>-36.682110648410394,175.55577177162525</t>
+        </is>
+      </c>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t>-36.682813371518975,175.55597431359416</t>
+        </is>
+      </c>
+      <c r="X293" t="inlineStr"/>
+      <c r="Y293" t="inlineStr"/>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t>-36.684807427368725,175.55682336817404</t>
+        </is>
+      </c>
+      <c r="AA293" t="inlineStr">
+        <is>
+          <t>-36.685398137684984,175.5573396978262</t>
+        </is>
+      </c>
+      <c r="AB293" t="inlineStr">
+        <is>
+          <t>-36.68591930347166,175.55794670437305</t>
+        </is>
+      </c>
+      <c r="AC293" t="inlineStr">
+        <is>
+          <t>-36.68623149128918,175.55874029303152</t>
+        </is>
+      </c>
+      <c r="AD293" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0150/nzd0150.xlsx
+++ b/data/nzd0150/nzd0150.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD293"/>
+  <dimension ref="A1:AD294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25206,8 +25206,12 @@
           <t>2025-03-19 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr"/>
-      <c r="C292" t="inlineStr"/>
+      <c r="B292" t="n">
+        <v>385.8271428571429</v>
+      </c>
+      <c r="C292" t="n">
+        <v>384.4671428571429</v>
+      </c>
       <c r="D292" t="n">
         <v>385.5971428571429</v>
       </c>
@@ -25371,6 +25375,92 @@
       <c r="AD293" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>379.08</v>
+      </c>
+      <c r="C294" t="n">
+        <v>375.12</v>
+      </c>
+      <c r="D294" t="n">
+        <v>384.89</v>
+      </c>
+      <c r="E294" t="n">
+        <v>385.76</v>
+      </c>
+      <c r="F294" t="n">
+        <v>382.0236363636364</v>
+      </c>
+      <c r="G294" t="n">
+        <v>385.76</v>
+      </c>
+      <c r="H294" t="n">
+        <v>373.31</v>
+      </c>
+      <c r="I294" t="n">
+        <v>374.7577777777778</v>
+      </c>
+      <c r="J294" t="n">
+        <v>354.28</v>
+      </c>
+      <c r="K294" t="n">
+        <v>356.1046153846154</v>
+      </c>
+      <c r="L294" t="n">
+        <v>358.0446153846154</v>
+      </c>
+      <c r="M294" t="n">
+        <v>358.7346153846154</v>
+      </c>
+      <c r="N294" t="n">
+        <v>355.0233333333333</v>
+      </c>
+      <c r="O294" t="n">
+        <v>351.2536363636364</v>
+      </c>
+      <c r="P294" t="n">
+        <v>359.4336363636364</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>358.67</v>
+      </c>
+      <c r="R294" t="n">
+        <v>354.92</v>
+      </c>
+      <c r="S294" t="n">
+        <v>371.51</v>
+      </c>
+      <c r="T294" t="n">
+        <v>360.89</v>
+      </c>
+      <c r="U294" t="n">
+        <v>359.42</v>
+      </c>
+      <c r="V294" t="n">
+        <v>358.7466666666667</v>
+      </c>
+      <c r="W294" t="n">
+        <v>365.41</v>
+      </c>
+      <c r="X294" t="n">
+        <v>368.78</v>
+      </c>
+      <c r="Y294" t="inlineStr"/>
+      <c r="Z294" t="inlineStr"/>
+      <c r="AA294" t="inlineStr"/>
+      <c r="AB294" t="inlineStr"/>
+      <c r="AC294" t="inlineStr"/>
+      <c r="AD294" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -25385,7 +25475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28463,6 +28553,16 @@
       </c>
       <c r="B307" t="n">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -28630,28 +28730,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-7.81446211093831</v>
+        <v>-7.748431067608673</v>
       </c>
       <c r="J2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K2" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4999398759904106</v>
+        <v>0.5012185930764302</v>
       </c>
       <c r="M2" t="n">
-        <v>39.23567410657525</v>
+        <v>38.94003206328627</v>
       </c>
       <c r="N2" t="n">
-        <v>2574.790761787458</v>
+        <v>2539.691958646333</v>
       </c>
       <c r="O2" t="n">
-        <v>50.74239609820824</v>
+        <v>50.39535651869458</v>
       </c>
       <c r="P2" t="n">
-        <v>562.1453926892311</v>
+        <v>561.3228282612856</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28702,28 +28802,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-3.248375958516734</v>
+        <v>-3.221825948106619</v>
       </c>
       <c r="J3" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K3" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1806903955862623</v>
+        <v>0.1823572674020142</v>
       </c>
       <c r="M3" t="n">
-        <v>35.09044949827888</v>
+        <v>34.69975214528058</v>
       </c>
       <c r="N3" t="n">
-        <v>2407.283845570468</v>
+        <v>2374.678693916876</v>
       </c>
       <c r="O3" t="n">
-        <v>49.06407897403627</v>
+        <v>48.73067508168624</v>
       </c>
       <c r="P3" t="n">
-        <v>453.7903678469046</v>
+        <v>453.5075131029346</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28780,28 +28880,28 @@
         <v>0.1077</v>
       </c>
       <c r="I4" t="n">
-        <v>1.843573548660191</v>
+        <v>1.831852491465179</v>
       </c>
       <c r="J4" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K4" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7159575315387463</v>
+        <v>0.7142928305745408</v>
       </c>
       <c r="M4" t="n">
-        <v>6.651136857878297</v>
+        <v>6.679482826077013</v>
       </c>
       <c r="N4" t="n">
-        <v>71.67172727274587</v>
+        <v>71.84879932361481</v>
       </c>
       <c r="O4" t="n">
-        <v>8.465915619278629</v>
+        <v>8.476367106468125</v>
       </c>
       <c r="P4" t="n">
-        <v>347.5428668875317</v>
+        <v>347.6599257757923</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28858,28 +28958,28 @@
         <v>0.0882</v>
       </c>
       <c r="I5" t="n">
-        <v>1.567646006217731</v>
+        <v>1.562036710849696</v>
       </c>
       <c r="J5" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K5" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6332063614730514</v>
+        <v>0.6334078326598636</v>
       </c>
       <c r="M5" t="n">
-        <v>6.163795634550882</v>
+        <v>6.156514233524745</v>
       </c>
       <c r="N5" t="n">
-        <v>74.46442311246699</v>
+        <v>74.27276546603663</v>
       </c>
       <c r="O5" t="n">
-        <v>8.629277090954201</v>
+        <v>8.618164854888576</v>
       </c>
       <c r="P5" t="n">
-        <v>351.1548999086804</v>
+        <v>351.2124829521001</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28936,28 +29036,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7581992462876965</v>
+        <v>0.7574487809255849</v>
       </c>
       <c r="J6" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K6" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2870234348768952</v>
+        <v>0.2888298517598333</v>
       </c>
       <c r="M6" t="n">
-        <v>5.517784972931231</v>
+        <v>5.494518011787914</v>
       </c>
       <c r="N6" t="n">
-        <v>71.34841892319525</v>
+        <v>71.00634085697153</v>
       </c>
       <c r="O6" t="n">
-        <v>8.446799330112871</v>
+        <v>8.42652602541353</v>
       </c>
       <c r="P6" t="n">
-        <v>363.1837799459062</v>
+        <v>363.1916625100058</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29014,28 +29114,28 @@
         <v>0.0561</v>
       </c>
       <c r="I7" t="n">
-        <v>0.327441933287744</v>
+        <v>0.3290930053079794</v>
       </c>
       <c r="J7" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K7" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04615546970438655</v>
+        <v>0.04705174339978424</v>
       </c>
       <c r="M7" t="n">
-        <v>6.643392786899765</v>
+        <v>6.619914098876987</v>
       </c>
       <c r="N7" t="n">
-        <v>112.3786957380006</v>
+        <v>111.874337961524</v>
       </c>
       <c r="O7" t="n">
-        <v>10.60088183775296</v>
+        <v>10.57706660475975</v>
       </c>
       <c r="P7" t="n">
-        <v>375.5789497171995</v>
+        <v>375.5617510993311</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29092,28 +29192,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1302077879469452</v>
+        <v>0.129775165464189</v>
       </c>
       <c r="J8" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K8" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007905517000953988</v>
+        <v>0.007927007047485946</v>
       </c>
       <c r="M8" t="n">
-        <v>7.447561809986816</v>
+        <v>7.417465508455323</v>
       </c>
       <c r="N8" t="n">
-        <v>109.5347909578468</v>
+        <v>109.0636834688794</v>
       </c>
       <c r="O8" t="n">
-        <v>10.4658870124728</v>
+        <v>10.44335594858661</v>
       </c>
       <c r="P8" t="n">
-        <v>370.4386508940172</v>
+        <v>370.4431305882933</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29170,28 +29270,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08517982943380013</v>
+        <v>0.09150439531188645</v>
       </c>
       <c r="J9" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K9" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003013165282939156</v>
+        <v>0.003502033933719617</v>
       </c>
       <c r="M9" t="n">
-        <v>7.960915123453591</v>
+        <v>7.956469459948201</v>
       </c>
       <c r="N9" t="n">
-        <v>125.7838897682717</v>
+        <v>125.4483003537769</v>
       </c>
       <c r="O9" t="n">
-        <v>11.21534171428904</v>
+        <v>11.20037054537826</v>
       </c>
       <c r="P9" t="n">
-        <v>365.4183462621622</v>
+        <v>365.3531285330909</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29248,28 +29348,28 @@
         <v>0.0568</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01539711435826865</v>
+        <v>0.01316310401655697</v>
       </c>
       <c r="J10" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K10" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001443360225238388</v>
+        <v>0.0001064616644060878</v>
       </c>
       <c r="M10" t="n">
-        <v>6.470876849522681</v>
+        <v>6.452038759013591</v>
       </c>
       <c r="N10" t="n">
-        <v>83.42309328132966</v>
+        <v>83.07750101349427</v>
       </c>
       <c r="O10" t="n">
-        <v>9.133624323417822</v>
+        <v>9.114686007400051</v>
       </c>
       <c r="P10" t="n">
-        <v>356.3511398600994</v>
+        <v>356.3746905403985</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29326,28 +29426,28 @@
         <v>0.0708</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02521907515067904</v>
+        <v>0.0284303377181727</v>
       </c>
       <c r="J11" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K11" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004706268397152158</v>
+        <v>0.0006029322250796776</v>
       </c>
       <c r="M11" t="n">
-        <v>5.81533158204858</v>
+        <v>5.804797225396805</v>
       </c>
       <c r="N11" t="n">
-        <v>69.43553922193915</v>
+        <v>69.19765252229931</v>
       </c>
       <c r="O11" t="n">
-        <v>8.332799002852472</v>
+        <v>8.318512638825483</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7178252720047</v>
+        <v>351.6842268560255</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29404,28 +29504,28 @@
         <v>0.0735</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1847361399403288</v>
+        <v>0.1874382835818292</v>
       </c>
       <c r="J12" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K12" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01963324354444618</v>
+        <v>0.02036480259046602</v>
       </c>
       <c r="M12" t="n">
-        <v>6.16271609392482</v>
+        <v>6.151989536169243</v>
       </c>
       <c r="N12" t="n">
-        <v>91.92590637202285</v>
+        <v>91.58935041539254</v>
       </c>
       <c r="O12" t="n">
-        <v>9.587799871295962</v>
+        <v>9.570232516265868</v>
       </c>
       <c r="P12" t="n">
-        <v>349.9640008057703</v>
+        <v>349.9367666960337</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29482,28 +29582,28 @@
         <v>0.0697</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2536139929014011</v>
+        <v>0.2573354445242682</v>
       </c>
       <c r="J13" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K13" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05636801771504263</v>
+        <v>0.0583321828458474</v>
       </c>
       <c r="M13" t="n">
-        <v>5.833929192183706</v>
+        <v>5.829391212926386</v>
       </c>
       <c r="N13" t="n">
-        <v>57.38820628425955</v>
+        <v>57.24085449560909</v>
       </c>
       <c r="O13" t="n">
-        <v>7.575500398274661</v>
+        <v>7.565768599131822</v>
       </c>
       <c r="P13" t="n">
-        <v>347.5744119964997</v>
+        <v>347.5367025070286</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29560,28 +29660,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1975332674821038</v>
+        <v>0.1985842043743944</v>
       </c>
       <c r="J14" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K14" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03175417187116136</v>
+        <v>0.03234684164126322</v>
       </c>
       <c r="M14" t="n">
-        <v>6.264928568254344</v>
+        <v>6.244760730295191</v>
       </c>
       <c r="N14" t="n">
-        <v>62.25562259049923</v>
+        <v>62.01627474485932</v>
       </c>
       <c r="O14" t="n">
-        <v>7.89022322817924</v>
+        <v>7.875041253533807</v>
       </c>
       <c r="P14" t="n">
-        <v>348.6100577310461</v>
+        <v>348.5992995278419</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29638,28 +29738,28 @@
         <v>0.0586</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3637108526055342</v>
+        <v>0.3583196157659669</v>
       </c>
       <c r="J15" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K15" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07699161734763427</v>
+        <v>0.07535905746323346</v>
       </c>
       <c r="M15" t="n">
-        <v>7.06785277884254</v>
+        <v>7.065288106216499</v>
       </c>
       <c r="N15" t="n">
-        <v>81.25386355736373</v>
+        <v>81.10518221440074</v>
       </c>
       <c r="O15" t="n">
-        <v>9.014092497715104</v>
+        <v>9.005841560587259</v>
       </c>
       <c r="P15" t="n">
-        <v>348.4866246417757</v>
+        <v>348.5422683807156</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29716,28 +29816,28 @@
         <v>0.0599</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4605365139119375</v>
+        <v>0.4581998392328713</v>
       </c>
       <c r="J16" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K16" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1148556322940925</v>
+        <v>0.1147264508197569</v>
       </c>
       <c r="M16" t="n">
-        <v>6.768531798145551</v>
+        <v>6.752118169096125</v>
       </c>
       <c r="N16" t="n">
-        <v>81.94443221179458</v>
+        <v>81.65010781456061</v>
       </c>
       <c r="O16" t="n">
-        <v>9.052316400336135</v>
+        <v>9.036044921012767</v>
       </c>
       <c r="P16" t="n">
-        <v>350.2941833191731</v>
+        <v>350.3183539824232</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29794,28 +29894,28 @@
         <v>0.056</v>
       </c>
       <c r="I17" t="n">
-        <v>0.539213231197602</v>
+        <v>0.5348531705024961</v>
       </c>
       <c r="J17" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K17" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1727386284698086</v>
+        <v>0.1715822656730417</v>
       </c>
       <c r="M17" t="n">
-        <v>6.505660188113157</v>
+        <v>6.498750693457358</v>
       </c>
       <c r="N17" t="n">
-        <v>69.77880595950845</v>
+        <v>69.59373149728972</v>
       </c>
       <c r="O17" t="n">
-        <v>8.353370933910959</v>
+        <v>8.342285747760606</v>
       </c>
       <c r="P17" t="n">
-        <v>349.7227588495857</v>
+        <v>349.7678838361887</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29872,28 +29972,28 @@
         <v>0.0458</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6512443513492522</v>
+        <v>0.6448730081273573</v>
       </c>
       <c r="J18" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K18" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2282930391924548</v>
+        <v>0.2260466268139175</v>
       </c>
       <c r="M18" t="n">
-        <v>6.498859529155084</v>
+        <v>6.499918651345856</v>
       </c>
       <c r="N18" t="n">
-        <v>70.30440415853565</v>
+        <v>70.22127112159369</v>
       </c>
       <c r="O18" t="n">
-        <v>8.384772159011575</v>
+        <v>8.379813310664725</v>
       </c>
       <c r="P18" t="n">
-        <v>345.2184061269907</v>
+        <v>345.2849616574878</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29950,28 +30050,28 @@
         <v>0.0429</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6567204940820395</v>
+        <v>0.664144132154415</v>
       </c>
       <c r="J19" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K19" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2029843811550591</v>
+        <v>0.207637820572557</v>
       </c>
       <c r="M19" t="n">
-        <v>7.061034613675658</v>
+        <v>7.067184963991957</v>
       </c>
       <c r="N19" t="n">
-        <v>83.32190632740141</v>
+        <v>83.27874292736064</v>
       </c>
       <c r="O19" t="n">
-        <v>9.128083387404029</v>
+        <v>9.125718762232411</v>
       </c>
       <c r="P19" t="n">
-        <v>345.9849411080575</v>
+        <v>345.9076255107729</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30028,28 +30128,28 @@
         <v>0.0418</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6558552835421642</v>
+        <v>0.6499625677990774</v>
       </c>
       <c r="J20" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K20" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1839754665565632</v>
+        <v>0.1823367823632431</v>
       </c>
       <c r="M20" t="n">
-        <v>7.39135796236532</v>
+        <v>7.389522502183012</v>
       </c>
       <c r="N20" t="n">
-        <v>94.86870534932096</v>
+        <v>94.69361352618026</v>
       </c>
       <c r="O20" t="n">
-        <v>9.740056742613</v>
+        <v>9.731064357313658</v>
       </c>
       <c r="P20" t="n">
-        <v>351.0238268710005</v>
+        <v>351.0849752711582</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30106,28 +30206,28 @@
         <v>0.0451</v>
       </c>
       <c r="I21" t="n">
-        <v>0.711471327722963</v>
+        <v>0.7007142972835874</v>
       </c>
       <c r="J21" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K21" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1783744214867607</v>
+        <v>0.1744391068048606</v>
       </c>
       <c r="M21" t="n">
-        <v>8.452840832288922</v>
+        <v>8.476853382535303</v>
       </c>
       <c r="N21" t="n">
-        <v>116.9973673947149</v>
+        <v>117.1971224444582</v>
       </c>
       <c r="O21" t="n">
-        <v>10.81653213348506</v>
+        <v>10.82576197985427</v>
       </c>
       <c r="P21" t="n">
-        <v>354.1282547916901</v>
+        <v>354.2397287449235</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30184,28 +30284,28 @@
         <v>0.0319</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6484155606889587</v>
+        <v>0.6406891113088357</v>
       </c>
       <c r="J22" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K22" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1061981994004961</v>
+        <v>0.1046106365620373</v>
       </c>
       <c r="M22" t="n">
-        <v>10.49481580966116</v>
+        <v>10.49303330299495</v>
       </c>
       <c r="N22" t="n">
-        <v>175.7987387712529</v>
+        <v>175.4569187744827</v>
       </c>
       <c r="O22" t="n">
-        <v>13.25891167371036</v>
+        <v>13.24601520361813</v>
       </c>
       <c r="P22" t="n">
-        <v>351.3488318343232</v>
+        <v>351.4291109563313</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30262,28 +30362,28 @@
         <v>0.0232</v>
       </c>
       <c r="I23" t="n">
-        <v>1.059660758182716</v>
+        <v>1.055626910828712</v>
       </c>
       <c r="J23" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K23" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L23" t="n">
-        <v>0.248780068207451</v>
+        <v>0.2489607688099903</v>
       </c>
       <c r="M23" t="n">
-        <v>10.14741522382858</v>
+        <v>10.12551587018246</v>
       </c>
       <c r="N23" t="n">
-        <v>171.8790352526711</v>
+        <v>171.2847245275757</v>
       </c>
       <c r="O23" t="n">
-        <v>13.11026449972201</v>
+        <v>13.08757901705184</v>
       </c>
       <c r="P23" t="n">
-        <v>342.8424883872897</v>
+        <v>342.8841602626964</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30340,28 +30440,28 @@
         <v>0.0254</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8160700136814879</v>
+        <v>0.8121669358518607</v>
       </c>
       <c r="J24" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K24" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L24" t="n">
-        <v>0.195770259538454</v>
+        <v>0.19555032674192</v>
       </c>
       <c r="M24" t="n">
-        <v>9.041852011117722</v>
+        <v>9.026414515432148</v>
       </c>
       <c r="N24" t="n">
-        <v>138.0934113365754</v>
+        <v>137.6594962149113</v>
       </c>
       <c r="O24" t="n">
-        <v>11.7513153024066</v>
+        <v>11.73283836993041</v>
       </c>
       <c r="P24" t="n">
-        <v>352.54354235836</v>
+        <v>352.5837407183614</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30421,7 +30521,7 @@
         <v>0.832784131804914</v>
       </c>
       <c r="J25" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K25" t="n">
         <v>264</v>
@@ -30499,7 +30599,7 @@
         <v>0.699593418263592</v>
       </c>
       <c r="J26" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K26" t="n">
         <v>262</v>
@@ -30577,7 +30677,7 @@
         <v>0.493439262840662</v>
       </c>
       <c r="J27" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K27" t="n">
         <v>261</v>
@@ -30655,7 +30755,7 @@
         <v>0.3192654698471508</v>
       </c>
       <c r="J28" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K28" t="n">
         <v>255</v>
@@ -30733,7 +30833,7 @@
         <v>0.1765211768552468</v>
       </c>
       <c r="J29" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K29" t="n">
         <v>255</v>
@@ -30789,7 +30889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD293"/>
+  <dimension ref="A1:AD294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68579,8 +68679,16 @@
           <t>2025-03-19 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr"/>
-      <c r="C292" t="inlineStr"/>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>-36.66814306057426,175.55763160124863</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-36.66881329384561,175.55730078720845</t>
+        </is>
+      </c>
       <c r="D292" t="inlineStr">
         <is>
           <t>-36.669491048574166,175.55699620537462</t>
@@ -68841,6 +68949,138 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-36.66812266378043,175.5575605204924</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-36.66878503701087,175.55720231481163</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>-36.66948891084197,175.55698875554157</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-36.67016587368715,175.55668143468995</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-36.6708289052075,175.55632558461173</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>-36.67149039881547,175.55605571734398</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>-36.67216121884632,175.55579492118636</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>-36.672876679437124,175.55570909772769</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>-36.67357478713321,175.5553791494083</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>-36.674292200364675,175.55529747720064</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>-36.675009706860166,175.5552170898972</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>-36.67572634981854,175.5551225803269</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>-36.67644243356379,175.55500670862776</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>-36.67715848449357,175.5548924180122</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>-36.67788160443019,175.55491106675598</t>
+        </is>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>-36.67860026767687,175.5549022001801</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>-36.679321578089024,175.55495808291727</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>-36.68001889215622,175.55524003948574</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>-36.680747021704256,175.5552198743882</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>-36.6814600370636,175.55534000259144</t>
+        </is>
+      </c>
+      <c r="V294" t="inlineStr">
+        <is>
+          <t>-36.68215833037253,175.55556401473945</t>
+        </is>
+      </c>
+      <c r="W294" t="inlineStr">
+        <is>
+          <t>-36.68283796156728,175.55586717126093</t>
+        </is>
+      </c>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>-36.68352571710504,175.5561349014014</t>
+        </is>
+      </c>
+      <c r="Y294" t="inlineStr"/>
+      <c r="Z294" t="inlineStr"/>
+      <c r="AA294" t="inlineStr"/>
+      <c r="AB294" t="inlineStr"/>
+      <c r="AC294" t="inlineStr"/>
+      <c r="AD294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0150/nzd0150.xlsx
+++ b/data/nzd0150/nzd0150.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD294"/>
+  <dimension ref="A1:AD296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25206,9 +25206,7 @@
           <t>2025-03-19 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B292" t="n">
-        <v>385.8271428571429</v>
-      </c>
+      <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
         <v>384.4671428571429</v>
       </c>
@@ -25384,9 +25382,7 @@
           <t>2025-05-14 22:05:26+00:00</t>
         </is>
       </c>
-      <c r="B294" t="n">
-        <v>379.08</v>
-      </c>
+      <c r="B294" t="inlineStr"/>
       <c r="C294" t="n">
         <v>375.12</v>
       </c>
@@ -25461,6 +25457,188 @@
       <c r="AD294" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="n">
+        <v>379.4757142857143</v>
+      </c>
+      <c r="D295" t="n">
+        <v>380.3457142857143</v>
+      </c>
+      <c r="E295" t="n">
+        <v>388.0657142857143</v>
+      </c>
+      <c r="F295" t="n">
+        <v>379.2236363636364</v>
+      </c>
+      <c r="G295" t="n">
+        <v>394.65</v>
+      </c>
+      <c r="H295" t="n">
+        <v>380.21</v>
+      </c>
+      <c r="I295" t="n">
+        <v>381.6555555555556</v>
+      </c>
+      <c r="J295" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="K295" t="n">
+        <v>358.5838461538461</v>
+      </c>
+      <c r="L295" t="n">
+        <v>353.9638461538461</v>
+      </c>
+      <c r="M295" t="n">
+        <v>353.0638461538462</v>
+      </c>
+      <c r="N295" t="n">
+        <v>356.4566666666667</v>
+      </c>
+      <c r="O295" t="n">
+        <v>360.9436363636364</v>
+      </c>
+      <c r="P295" t="n">
+        <v>363.8636363636364</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>365.28</v>
+      </c>
+      <c r="R295" t="n">
+        <v>360.07</v>
+      </c>
+      <c r="S295" t="n">
+        <v>355.36</v>
+      </c>
+      <c r="T295" t="n">
+        <v>354.66</v>
+      </c>
+      <c r="U295" t="n">
+        <v>357.84</v>
+      </c>
+      <c r="V295" t="n">
+        <v>345.4333333333333</v>
+      </c>
+      <c r="W295" t="n">
+        <v>365.97</v>
+      </c>
+      <c r="X295" t="n">
+        <v>374.08</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>378.7814285714285</v>
+      </c>
+      <c r="Z295" t="inlineStr"/>
+      <c r="AA295" t="inlineStr"/>
+      <c r="AB295" t="inlineStr"/>
+      <c r="AC295" t="n">
+        <v>393.16</v>
+      </c>
+      <c r="AD295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>476.89</v>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="n">
+        <v>397.44</v>
+      </c>
+      <c r="E296" t="n">
+        <v>385.74</v>
+      </c>
+      <c r="F296" t="n">
+        <v>375.7127272727273</v>
+      </c>
+      <c r="G296" t="n">
+        <v>379.35</v>
+      </c>
+      <c r="H296" t="n">
+        <v>366.49</v>
+      </c>
+      <c r="I296" t="n">
+        <v>358.5944444444444</v>
+      </c>
+      <c r="J296" t="n">
+        <v>356.52</v>
+      </c>
+      <c r="K296" t="n">
+        <v>349.4707692307692</v>
+      </c>
+      <c r="L296" t="n">
+        <v>354.0407692307692</v>
+      </c>
+      <c r="M296" t="n">
+        <v>356.3407692307692</v>
+      </c>
+      <c r="N296" t="n">
+        <v>357.3733333333333</v>
+      </c>
+      <c r="O296" t="n">
+        <v>360.5427272727272</v>
+      </c>
+      <c r="P296" t="n">
+        <v>361.8527272727272</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>351.07</v>
+      </c>
+      <c r="R296" t="n">
+        <v>346.91</v>
+      </c>
+      <c r="S296" t="n">
+        <v>350.34</v>
+      </c>
+      <c r="T296" t="n">
+        <v>347.06</v>
+      </c>
+      <c r="U296" t="n">
+        <v>349.61</v>
+      </c>
+      <c r="V296" t="n">
+        <v>337.0666666666667</v>
+      </c>
+      <c r="W296" t="n">
+        <v>352.17</v>
+      </c>
+      <c r="X296" t="n">
+        <v>348.4</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>365.09</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>344.4644444444444</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>341.7544444444445</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>358.0144444444445</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>356.77</v>
+      </c>
+      <c r="AD296" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -25475,7 +25653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28563,6 +28741,26 @@
       </c>
       <c r="B308" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -28730,28 +28928,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-7.748431067608673</v>
+        <v>-7.62761185062875</v>
       </c>
       <c r="J2" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K2" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5012185930764302</v>
+        <v>0.480426796782436</v>
       </c>
       <c r="M2" t="n">
-        <v>38.94003206328627</v>
+        <v>39.8954517112102</v>
       </c>
       <c r="N2" t="n">
-        <v>2539.691958646333</v>
+        <v>2665.084474518855</v>
       </c>
       <c r="O2" t="n">
-        <v>50.39535651869458</v>
+        <v>51.62445616680969</v>
       </c>
       <c r="P2" t="n">
-        <v>561.3228282612856</v>
+        <v>559.7994450559094</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28802,28 +29000,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-3.221825948106619</v>
+        <v>-3.209074665447199</v>
       </c>
       <c r="J3" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K3" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1823572674020142</v>
+        <v>0.1832085177837076</v>
       </c>
       <c r="M3" t="n">
-        <v>34.69975214528058</v>
+        <v>34.50663769596114</v>
       </c>
       <c r="N3" t="n">
-        <v>2374.678693916876</v>
+        <v>2358.553070126614</v>
       </c>
       <c r="O3" t="n">
-        <v>48.73067508168624</v>
+        <v>48.56493663258106</v>
       </c>
       <c r="P3" t="n">
-        <v>453.5075131029346</v>
+        <v>453.3706497741532</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28880,28 +29078,28 @@
         <v>0.1077</v>
       </c>
       <c r="I4" t="n">
-        <v>1.831852491465179</v>
+        <v>1.81819751197849</v>
       </c>
       <c r="J4" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7142928305745408</v>
+        <v>0.7128272307784411</v>
       </c>
       <c r="M4" t="n">
-        <v>6.679482826077013</v>
+        <v>6.709303386031931</v>
       </c>
       <c r="N4" t="n">
-        <v>71.84879932361481</v>
+        <v>72.26448973437061</v>
       </c>
       <c r="O4" t="n">
-        <v>8.476367106468125</v>
+        <v>8.500852294586149</v>
       </c>
       <c r="P4" t="n">
-        <v>347.6599257757923</v>
+        <v>347.7965363980381</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28958,28 +29156,28 @@
         <v>0.0882</v>
       </c>
       <c r="I5" t="n">
-        <v>1.562036710849696</v>
+        <v>1.553217791587826</v>
       </c>
       <c r="J5" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K5" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6334078326598636</v>
+        <v>0.6347452324667161</v>
       </c>
       <c r="M5" t="n">
-        <v>6.156514233524745</v>
+        <v>6.133656944135799</v>
       </c>
       <c r="N5" t="n">
-        <v>74.27276546603663</v>
+        <v>73.7926093553759</v>
       </c>
       <c r="O5" t="n">
-        <v>8.618164854888576</v>
+        <v>8.590262473020012</v>
       </c>
       <c r="P5" t="n">
-        <v>351.2124829521001</v>
+        <v>351.3032515680894</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29036,28 +29234,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7574487809255849</v>
+        <v>0.7469104121488845</v>
       </c>
       <c r="J6" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K6" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2888298517598333</v>
+        <v>0.2865852219484982</v>
       </c>
       <c r="M6" t="n">
-        <v>5.494518011787914</v>
+        <v>5.489242843227303</v>
       </c>
       <c r="N6" t="n">
-        <v>71.00634085697153</v>
+        <v>70.61971103055349</v>
       </c>
       <c r="O6" t="n">
-        <v>8.42652602541353</v>
+        <v>8.403553476390419</v>
       </c>
       <c r="P6" t="n">
-        <v>363.1916625100058</v>
+        <v>363.3026293289234</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29114,28 +29312,28 @@
         <v>0.0561</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3290930053079794</v>
+        <v>0.3345371193504079</v>
       </c>
       <c r="J7" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K7" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04705174339978424</v>
+        <v>0.04922378085310841</v>
       </c>
       <c r="M7" t="n">
-        <v>6.619914098876987</v>
+        <v>6.626684115648544</v>
       </c>
       <c r="N7" t="n">
-        <v>111.874337961524</v>
+        <v>111.4633393594832</v>
       </c>
       <c r="O7" t="n">
-        <v>10.57706660475975</v>
+        <v>10.55761996661573</v>
       </c>
       <c r="P7" t="n">
-        <v>375.5617510993311</v>
+        <v>375.5049794561875</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29192,28 +29390,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.129775165464189</v>
+        <v>0.1289846251611504</v>
       </c>
       <c r="J8" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K8" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007927007047485946</v>
+        <v>0.007947046635096489</v>
       </c>
       <c r="M8" t="n">
-        <v>7.417465508455323</v>
+        <v>7.412516661874524</v>
       </c>
       <c r="N8" t="n">
-        <v>109.0636834688794</v>
+        <v>108.5355952890641</v>
       </c>
       <c r="O8" t="n">
-        <v>10.44335594858661</v>
+        <v>10.41804181643864</v>
       </c>
       <c r="P8" t="n">
-        <v>370.4431305882933</v>
+        <v>370.4513972849982</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29270,28 +29468,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09150439531188645</v>
+        <v>0.09564924583822816</v>
       </c>
       <c r="J9" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K9" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003502033933719617</v>
+        <v>0.003858446623347889</v>
       </c>
       <c r="M9" t="n">
-        <v>7.956469459948201</v>
+        <v>7.987451018662904</v>
       </c>
       <c r="N9" t="n">
-        <v>125.4483003537769</v>
+        <v>125.5641832635037</v>
       </c>
       <c r="O9" t="n">
-        <v>11.20037054537826</v>
+        <v>11.20554252428251</v>
       </c>
       <c r="P9" t="n">
-        <v>365.3531285330909</v>
+        <v>365.310386083503</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29348,28 +29546,28 @@
         <v>0.0568</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01316310401655697</v>
+        <v>0.01737936981226585</v>
       </c>
       <c r="J10" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K10" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001064616644060878</v>
+        <v>0.0001888043845593712</v>
       </c>
       <c r="M10" t="n">
-        <v>6.452038759013591</v>
+        <v>6.419588013110082</v>
       </c>
       <c r="N10" t="n">
-        <v>83.07750101349427</v>
+        <v>82.45017739173308</v>
       </c>
       <c r="O10" t="n">
-        <v>9.114686007400051</v>
+        <v>9.080208003770238</v>
       </c>
       <c r="P10" t="n">
-        <v>356.3746905403985</v>
+        <v>356.3301579176373</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29426,28 +29624,28 @@
         <v>0.0708</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0284303377181727</v>
+        <v>0.03112833711959234</v>
       </c>
       <c r="J11" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K11" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006029322250796776</v>
+        <v>0.00073352839083074</v>
       </c>
       <c r="M11" t="n">
-        <v>5.804797225396805</v>
+        <v>5.792851876705365</v>
       </c>
       <c r="N11" t="n">
-        <v>69.19765252229931</v>
+        <v>68.80853515840641</v>
       </c>
       <c r="O11" t="n">
-        <v>8.318512638825483</v>
+        <v>8.295091027734802</v>
       </c>
       <c r="P11" t="n">
-        <v>351.6842268560255</v>
+        <v>351.6559690697355</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29504,28 +29702,28 @@
         <v>0.0735</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1874382835818292</v>
+        <v>0.18618259350702</v>
       </c>
       <c r="J12" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K12" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02036480259046602</v>
+        <v>0.02044061526236862</v>
       </c>
       <c r="M12" t="n">
-        <v>6.151989536169243</v>
+        <v>6.107138269341323</v>
       </c>
       <c r="N12" t="n">
-        <v>91.58935041539254</v>
+        <v>90.84048358482517</v>
       </c>
       <c r="O12" t="n">
-        <v>9.570232516265868</v>
+        <v>9.531027414965564</v>
       </c>
       <c r="P12" t="n">
-        <v>349.9367666960337</v>
+        <v>349.9494547299862</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29582,28 +29780,28 @@
         <v>0.0697</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2573354445242682</v>
+        <v>0.2581390153782319</v>
       </c>
       <c r="J13" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K13" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0583321828458474</v>
+        <v>0.05960519094408856</v>
       </c>
       <c r="M13" t="n">
-        <v>5.829391212926386</v>
+        <v>5.795795303927387</v>
       </c>
       <c r="N13" t="n">
-        <v>57.24085449560909</v>
+        <v>56.80458419271621</v>
       </c>
       <c r="O13" t="n">
-        <v>7.565768599131822</v>
+        <v>7.53688159603932</v>
       </c>
       <c r="P13" t="n">
-        <v>347.5367025070286</v>
+        <v>347.5285258272739</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29660,28 +29858,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1985842043743944</v>
+        <v>0.2035737440240739</v>
       </c>
       <c r="J14" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K14" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03234684164126322</v>
+        <v>0.03445455939636966</v>
       </c>
       <c r="M14" t="n">
-        <v>6.244760730295191</v>
+        <v>6.217422700619323</v>
       </c>
       <c r="N14" t="n">
-        <v>62.01627474485932</v>
+        <v>61.60871184402118</v>
       </c>
       <c r="O14" t="n">
-        <v>7.875041253533807</v>
+        <v>7.849121724372809</v>
       </c>
       <c r="P14" t="n">
-        <v>348.5992995278419</v>
+        <v>348.548093096901</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29738,28 +29936,28 @@
         <v>0.0586</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3583196157659669</v>
+        <v>0.3629907080095312</v>
       </c>
       <c r="J15" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K15" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07535905746323346</v>
+        <v>0.07836502068068585</v>
       </c>
       <c r="M15" t="n">
-        <v>7.065288106216499</v>
+        <v>7.033237361635738</v>
       </c>
       <c r="N15" t="n">
-        <v>81.10518221440074</v>
+        <v>80.539414431202</v>
       </c>
       <c r="O15" t="n">
-        <v>9.005841560587259</v>
+        <v>8.974375434045648</v>
       </c>
       <c r="P15" t="n">
-        <v>348.5422683807156</v>
+        <v>348.4939442013225</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29816,28 +30014,28 @@
         <v>0.0599</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4581998392328713</v>
+        <v>0.4593324124985253</v>
       </c>
       <c r="J16" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K16" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1147264508197569</v>
+        <v>0.1170871707672463</v>
       </c>
       <c r="M16" t="n">
-        <v>6.752118169096125</v>
+        <v>6.707303328600078</v>
       </c>
       <c r="N16" t="n">
-        <v>81.65010781456061</v>
+        <v>81.02128202656743</v>
       </c>
       <c r="O16" t="n">
-        <v>9.036044921012767</v>
+        <v>9.001182257157526</v>
       </c>
       <c r="P16" t="n">
-        <v>350.3183539824232</v>
+        <v>350.3066200857932</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29894,28 +30092,28 @@
         <v>0.056</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5348531705024961</v>
+        <v>0.5255264021906357</v>
       </c>
       <c r="J17" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K17" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1715822656730417</v>
+        <v>0.167968938005864</v>
       </c>
       <c r="M17" t="n">
-        <v>6.498750693457358</v>
+        <v>6.503119984721559</v>
       </c>
       <c r="N17" t="n">
-        <v>69.59373149728972</v>
+        <v>69.67236828776332</v>
       </c>
       <c r="O17" t="n">
-        <v>8.342285747760606</v>
+        <v>8.346997561264967</v>
       </c>
       <c r="P17" t="n">
-        <v>349.7678838361887</v>
+        <v>349.8646897824137</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29972,28 +30170,28 @@
         <v>0.0458</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6448730081273573</v>
+        <v>0.6300051529785266</v>
       </c>
       <c r="J18" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K18" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2260466268139175</v>
+        <v>0.2190360581721346</v>
       </c>
       <c r="M18" t="n">
-        <v>6.499918651345856</v>
+        <v>6.510767615983998</v>
       </c>
       <c r="N18" t="n">
-        <v>70.22127112159369</v>
+        <v>70.57096241618733</v>
       </c>
       <c r="O18" t="n">
-        <v>8.379813310664725</v>
+        <v>8.400652499430466</v>
       </c>
       <c r="P18" t="n">
-        <v>345.2849616574878</v>
+        <v>345.4406678489091</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30050,28 +30248,28 @@
         <v>0.0429</v>
       </c>
       <c r="I19" t="n">
-        <v>0.664144132154415</v>
+        <v>0.6467617000889612</v>
       </c>
       <c r="J19" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K19" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L19" t="n">
-        <v>0.207637820572557</v>
+        <v>0.2003916522700731</v>
       </c>
       <c r="M19" t="n">
-        <v>7.067184963991957</v>
+        <v>7.090139760597246</v>
       </c>
       <c r="N19" t="n">
-        <v>83.27874292736064</v>
+        <v>83.47683715493868</v>
       </c>
       <c r="O19" t="n">
-        <v>9.125718762232411</v>
+        <v>9.136565938849163</v>
       </c>
       <c r="P19" t="n">
-        <v>345.9076255107729</v>
+        <v>346.0890779807438</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30128,28 +30326,28 @@
         <v>0.0418</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6499625677990774</v>
+        <v>0.6221222992222659</v>
       </c>
       <c r="J20" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K20" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1823367823632431</v>
+        <v>0.1688068191478546</v>
       </c>
       <c r="M20" t="n">
-        <v>7.389522502183012</v>
+        <v>7.460188765522168</v>
       </c>
       <c r="N20" t="n">
-        <v>94.69361352618026</v>
+        <v>96.24308494253224</v>
       </c>
       <c r="O20" t="n">
-        <v>9.731064357313658</v>
+        <v>9.810356004882404</v>
       </c>
       <c r="P20" t="n">
-        <v>351.0849752711582</v>
+        <v>351.3745479318208</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30206,28 +30404,28 @@
         <v>0.0451</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7007142972835874</v>
+        <v>0.6706513011374541</v>
       </c>
       <c r="J21" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K21" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1744391068048606</v>
+        <v>0.1614245077360653</v>
       </c>
       <c r="M21" t="n">
-        <v>8.476853382535303</v>
+        <v>8.571157592638009</v>
       </c>
       <c r="N21" t="n">
-        <v>117.1971224444582</v>
+        <v>119.0204737179674</v>
       </c>
       <c r="O21" t="n">
-        <v>10.82576197985427</v>
+        <v>10.90965048560069</v>
       </c>
       <c r="P21" t="n">
-        <v>354.2397287449235</v>
+        <v>354.5520107620694</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30284,28 +30482,28 @@
         <v>0.0319</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6406891113088357</v>
+        <v>0.5973305788228999</v>
       </c>
       <c r="J22" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K22" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1046106365620373</v>
+        <v>0.09111855856305695</v>
       </c>
       <c r="M22" t="n">
-        <v>10.49303330299495</v>
+        <v>10.63092950060248</v>
       </c>
       <c r="N22" t="n">
-        <v>175.4569187744827</v>
+        <v>179.5493491204205</v>
       </c>
       <c r="O22" t="n">
-        <v>13.24601520361813</v>
+        <v>13.39960257322658</v>
       </c>
       <c r="P22" t="n">
-        <v>351.4291109563313</v>
+        <v>351.8806540531174</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30362,28 +30560,28 @@
         <v>0.0232</v>
       </c>
       <c r="I23" t="n">
-        <v>1.055626910828712</v>
+        <v>1.037277638053559</v>
       </c>
       <c r="J23" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K23" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2489607688099903</v>
+        <v>0.244332157025928</v>
       </c>
       <c r="M23" t="n">
-        <v>10.12551587018246</v>
+        <v>10.12861875853261</v>
       </c>
       <c r="N23" t="n">
-        <v>171.2847245275757</v>
+        <v>171.262837966636</v>
       </c>
       <c r="O23" t="n">
-        <v>13.08757901705184</v>
+        <v>13.08674283260109</v>
       </c>
       <c r="P23" t="n">
-        <v>342.8841602626964</v>
+        <v>343.0742145027288</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30440,28 +30638,28 @@
         <v>0.0254</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8121669358518607</v>
+        <v>0.7925911593909243</v>
       </c>
       <c r="J24" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K24" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L24" t="n">
-        <v>0.19555032674192</v>
+        <v>0.1880371641914563</v>
       </c>
       <c r="M24" t="n">
-        <v>9.026414515432148</v>
+        <v>9.058165062037448</v>
       </c>
       <c r="N24" t="n">
-        <v>137.6594962149113</v>
+        <v>138.9813426298765</v>
       </c>
       <c r="O24" t="n">
-        <v>11.73283836993041</v>
+        <v>11.78903484725855</v>
       </c>
       <c r="P24" t="n">
-        <v>352.5837407183614</v>
+        <v>352.7859116844482</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30518,28 +30716,28 @@
         <v>0.0362</v>
       </c>
       <c r="I25" t="n">
-        <v>0.832784131804914</v>
+        <v>0.8168152267024851</v>
       </c>
       <c r="J25" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K25" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2450625552391162</v>
+        <v>0.2393796199387577</v>
       </c>
       <c r="M25" t="n">
-        <v>7.96021798079555</v>
+        <v>7.975527130106067</v>
       </c>
       <c r="N25" t="n">
-        <v>105.1561946795216</v>
+        <v>105.4224534777142</v>
       </c>
       <c r="O25" t="n">
-        <v>10.25456945363976</v>
+        <v>10.26754369251547</v>
       </c>
       <c r="P25" t="n">
-        <v>360.1821430067125</v>
+        <v>360.3497006801372</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30596,28 +30794,28 @@
         <v>0.0466</v>
       </c>
       <c r="I26" t="n">
-        <v>0.699593418263592</v>
+        <v>0.6832690677297349</v>
       </c>
       <c r="J26" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K26" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2353844192101163</v>
+        <v>0.2252825453787657</v>
       </c>
       <c r="M26" t="n">
-        <v>6.833673717624686</v>
+        <v>6.883120006242507</v>
       </c>
       <c r="N26" t="n">
-        <v>77.92814317585044</v>
+        <v>79.09658022229348</v>
       </c>
       <c r="O26" t="n">
-        <v>8.827691837385945</v>
+        <v>8.893625819782024</v>
       </c>
       <c r="P26" t="n">
-        <v>346.1051456932199</v>
+        <v>346.2778553989154</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30674,28 +30872,28 @@
         <v>0.0468</v>
       </c>
       <c r="I27" t="n">
-        <v>0.493439262840662</v>
+        <v>0.4805340116064937</v>
       </c>
       <c r="J27" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K27" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1532715524462341</v>
+        <v>0.1459770988748665</v>
       </c>
       <c r="M27" t="n">
-        <v>6.278423652237533</v>
+        <v>6.316994454658238</v>
       </c>
       <c r="N27" t="n">
-        <v>65.66083676572703</v>
+        <v>66.29875874868119</v>
       </c>
       <c r="O27" t="n">
-        <v>8.103137464323744</v>
+        <v>8.142404973266878</v>
       </c>
       <c r="P27" t="n">
-        <v>344.3367550501292</v>
+        <v>344.4728020861845</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30752,28 +30950,28 @@
         <v>0.0456</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3192654698471508</v>
+        <v>0.3104293481879192</v>
       </c>
       <c r="J28" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K28" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05925441394316189</v>
+        <v>0.05642581736588315</v>
       </c>
       <c r="M28" t="n">
-        <v>6.839710141973137</v>
+        <v>6.853577442879879</v>
       </c>
       <c r="N28" t="n">
-        <v>79.84492511716861</v>
+        <v>79.94426391392888</v>
       </c>
       <c r="O28" t="n">
-        <v>8.93559875538112</v>
+        <v>8.941155625193472</v>
       </c>
       <c r="P28" t="n">
-        <v>360.0777365489557</v>
+        <v>360.1701477411687</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -30830,28 +31028,28 @@
         <v>0.0456</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1765211768552468</v>
+        <v>0.1744541339819363</v>
       </c>
       <c r="J29" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K29" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01881379876144718</v>
+        <v>0.01813742028273435</v>
       </c>
       <c r="M29" t="n">
-        <v>6.84078322741385</v>
+        <v>6.92970200265685</v>
       </c>
       <c r="N29" t="n">
-        <v>79.60317948873751</v>
+        <v>81.5715594445283</v>
       </c>
       <c r="O29" t="n">
-        <v>8.922061392343</v>
+        <v>9.031697484112735</v>
       </c>
       <c r="P29" t="n">
-        <v>371.6011549523699</v>
+        <v>371.6230432966855</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -30889,7 +31087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD294"/>
+  <dimension ref="A1:AD296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32505,7 +32703,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-36.67077891690448,175.5561513789316</t>
+          <t>-36.670778916904474,175.5561513789316</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -40100,7 +40298,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>-36.68632212987734,175.55866409440665</t>
+          <t>-36.68632212987735,175.55866409440665</t>
         </is>
       </c>
       <c r="AD72" t="inlineStr">
@@ -48233,7 +48431,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>-36.679320431492094,175.554969289685</t>
+          <t>-36.67932043149209,175.554969289685</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -52992,7 +53190,7 @@
       </c>
       <c r="AC173" t="inlineStr">
         <is>
-          <t>-36.68632212987734,175.55866409440665</t>
+          <t>-36.68632212987735,175.55866409440665</t>
         </is>
       </c>
       <c r="AD173" t="inlineStr">
@@ -57877,7 +58075,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>-36.67356926243159,175.5553081250321</t>
+          <t>-36.673569262431585,175.5553081250321</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -60785,7 +60983,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>-36.67358107381059,175.5554599702595</t>
+          <t>-36.67358107381058,175.5554599702595</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -61279,7 +61477,7 @@
       </c>
       <c r="AB236" t="inlineStr">
         <is>
-          <t>-36.685988864438194,175.55786677892397</t>
+          <t>-36.68598886443819,175.55786677892397</t>
         </is>
       </c>
       <c r="AC236" t="inlineStr">
@@ -64307,7 +64505,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-36.66949832117862,175.5570215498601</t>
+          <t>-36.669498321178615,175.5570215498601</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -67093,7 +67291,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>-36.67084793966362,175.55639191863537</t>
+          <t>-36.67084793966363,175.55639191863537</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -68679,11 +68877,7 @@
           <t>2025-03-19 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>-36.66814306057426,175.55763160124863</t>
-        </is>
-      </c>
+      <c r="B292" t="inlineStr"/>
       <c r="C292" t="inlineStr">
         <is>
           <t>-36.66881329384561,175.55730078720845</t>
@@ -68955,11 +69149,7 @@
           <t>2025-05-14 22:05:26+00:00</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>-36.66812266378043,175.5575605204924</t>
-        </is>
-      </c>
+      <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr">
         <is>
           <t>-36.66878503701087,175.55720231481163</t>
@@ -69081,6 +69271,290 @@
         </is>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-36.66879820454226,175.5572482023682</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>-36.66947517320201,175.55694088096703</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-36.670172844022254,175.556705725864</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-36.67082044055109,175.5562960858066</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>-36.671508932681775,175.55615244282941</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>-36.67216806626058,175.55587162066377</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>-36.67288265228557,175.55578588550756</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>-36.673581195040725,175.5554615287884</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>-36.67429434722284,175.55532507711817</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>-36.675006173151914,175.5551716605085</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>-36.67572222781961,175.5550593627028</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>-36.676443261178356,175.5550227068546</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>-36.6771639802985,175.55500058232047</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>-36.67788250597364,175.55496060258864</t>
+        </is>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>-36.67859596665485,175.5549759390302</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>-36.679315731569076,175.55501522633267</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>-36.6800372266306,175.55506084057924</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>-36.68075531710833,175.55515095605594</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>-36.681463199663696,175.55532277157565</t>
+        </is>
+      </c>
+      <c r="V295" t="inlineStr">
+        <is>
+          <t>-36.68219119895464,175.55542080073604</t>
+        </is>
+      </c>
+      <c r="W295" t="inlineStr">
+        <is>
+          <t>-36.68283657899677,175.5558731953298</t>
+        </is>
+      </c>
+      <c r="X295" t="inlineStr">
+        <is>
+          <t>-36.6835126319487,175.55619191536448</t>
+        </is>
+      </c>
+      <c r="Y295" t="inlineStr">
+        <is>
+          <t>-36.68416926616049,175.55645948145968</t>
+        </is>
+      </c>
+      <c r="Z295" t="inlineStr"/>
+      <c r="AA295" t="inlineStr"/>
+      <c r="AB295" t="inlineStr"/>
+      <c r="AC295" t="inlineStr">
+        <is>
+          <t>-36.686127946906886,175.55882734112222</t>
+        </is>
+      </c>
+      <c r="AD295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-36.66841834172944,175.5585909465918</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-36.669526850118096,175.55712097132346</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-36.67016581322574,175.55668122398586</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-36.67080982674071,175.5562590973784</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>-36.67147703520162,175.55598597492218</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>-36.672154450773235,175.55571911098875</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>-36.672862683263894,175.55552916351115</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>-36.67357672683022,175.55540408586822</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>-36.67428645583869,175.55522362623248</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>-36.67500623976298,175.55517251685887</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>-36.67572460977104,175.55509589377635</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>-36.67644379046559,175.55503293827886</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>-36.677163752919846,175.55499610718567</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>-36.677882096738756,175.55493811679716</t>
+        </is>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>-36.67860521282004,175.5548174172224</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>-36.679330671360304,175.5548692054682</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>-36.68004292558935,175.55500513910286</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>-36.68076543664906,175.55506688230471</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>-36.68147967316772,175.55523301758856</t>
+        </is>
+      </c>
+      <c r="V296" t="inlineStr">
+        <is>
+          <t>-36.682211854888045,175.55533079887894</t>
+        </is>
+      </c>
+      <c r="W296" t="inlineStr">
+        <is>
+          <t>-36.68287064939764,175.55572474499314</t>
+        </is>
+      </c>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t>-36.6835760329867,175.5559156663832</t>
+        </is>
+      </c>
+      <c r="Y296" t="inlineStr">
+        <is>
+          <t>-36.684224006313094,175.55632224086906</t>
+        </is>
+      </c>
+      <c r="Z296" t="inlineStr">
+        <is>
+          <t>-36.68491108346934,175.556657167734</t>
+        </is>
+      </c>
+      <c r="AA296" t="inlineStr">
+        <is>
+          <t>-36.68549813417766,175.55718443879178</t>
+        </is>
+      </c>
+      <c r="AB296" t="inlineStr">
+        <is>
+          <t>-36.685979159114055,175.55787793033923</t>
+        </is>
+      </c>
+      <c r="AC296" t="inlineStr">
+        <is>
+          <t>-36.686399415092126,175.55859912161333</t>
+        </is>
+      </c>
+      <c r="AD296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0150/nzd0150.xlsx
+++ b/data/nzd0150/nzd0150.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD296"/>
+  <dimension ref="A1:AD298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25642,6 +25642,180 @@
         </is>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="n">
+        <v>387.67</v>
+      </c>
+      <c r="D297" t="n">
+        <v>386.6</v>
+      </c>
+      <c r="E297" t="n">
+        <v>383.87</v>
+      </c>
+      <c r="F297" t="n">
+        <v>379.0918181818182</v>
+      </c>
+      <c r="G297" t="n">
+        <v>379.96</v>
+      </c>
+      <c r="H297" t="n">
+        <v>363.87</v>
+      </c>
+      <c r="I297" t="n">
+        <v>363.6433333333333</v>
+      </c>
+      <c r="J297" t="n">
+        <v>351.86</v>
+      </c>
+      <c r="K297" t="n">
+        <v>351.5092307692308</v>
+      </c>
+      <c r="L297" t="n">
+        <v>356.9792307692308</v>
+      </c>
+      <c r="M297" t="n">
+        <v>356.4092307692308</v>
+      </c>
+      <c r="N297" t="n">
+        <v>350.34</v>
+      </c>
+      <c r="O297" t="n">
+        <v>351.0018181818182</v>
+      </c>
+      <c r="P297" t="n">
+        <v>354.7618181818182</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>352.47</v>
+      </c>
+      <c r="R297" t="n">
+        <v>344.38</v>
+      </c>
+      <c r="S297" t="n">
+        <v>350.84</v>
+      </c>
+      <c r="T297" t="n">
+        <v>350.49</v>
+      </c>
+      <c r="U297" t="n">
+        <v>355.33</v>
+      </c>
+      <c r="V297" t="n">
+        <v>344.7</v>
+      </c>
+      <c r="W297" t="n">
+        <v>348.22</v>
+      </c>
+      <c r="X297" t="n">
+        <v>352.93</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>364.71</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>351.6033333333333</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>342.0033333333333</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>355.7033333333333</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>364.89</v>
+      </c>
+      <c r="AD297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>352.14</v>
+      </c>
+      <c r="K298" t="n">
+        <v>350.8761538461538</v>
+      </c>
+      <c r="L298" t="n">
+        <v>357.9261538461539</v>
+      </c>
+      <c r="M298" t="n">
+        <v>346.3561538461539</v>
+      </c>
+      <c r="N298" t="n">
+        <v>348.5866666666667</v>
+      </c>
+      <c r="O298" t="n">
+        <v>354.3054545454545</v>
+      </c>
+      <c r="P298" t="n">
+        <v>354.2754545454546</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>358.82</v>
+      </c>
+      <c r="R298" t="n">
+        <v>350.78</v>
+      </c>
+      <c r="S298" t="n">
+        <v>349.59</v>
+      </c>
+      <c r="T298" t="n">
+        <v>356.58</v>
+      </c>
+      <c r="U298" t="n">
+        <v>351.52</v>
+      </c>
+      <c r="V298" t="n">
+        <v>346.3833333333333</v>
+      </c>
+      <c r="W298" t="n">
+        <v>351.07</v>
+      </c>
+      <c r="X298" t="n">
+        <v>361.1</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>365.7628571428572</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>352.8955555555555</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>348.9755555555556</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>359.2555555555556</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>371.48</v>
+      </c>
+      <c r="AD298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25653,7 +25827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28761,6 +28935,26 @@
       </c>
       <c r="B310" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -28931,7 +29125,7 @@
         <v>-7.62761185062875</v>
       </c>
       <c r="J2" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K2" t="n">
         <v>120</v>
@@ -29000,28 +29194,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-3.209074665447199</v>
+        <v>-3.18467998719492</v>
       </c>
       <c r="J3" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K3" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1832085177837076</v>
+        <v>0.1828769039714784</v>
       </c>
       <c r="M3" t="n">
-        <v>34.50663769596114</v>
+        <v>34.36027630351798</v>
       </c>
       <c r="N3" t="n">
-        <v>2358.553070126614</v>
+        <v>2344.246782186395</v>
       </c>
       <c r="O3" t="n">
-        <v>48.56493663258106</v>
+        <v>48.4174223001018</v>
       </c>
       <c r="P3" t="n">
-        <v>453.3706497741532</v>
+        <v>453.1066535176256</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29078,28 +29272,28 @@
         <v>0.1077</v>
       </c>
       <c r="I4" t="n">
-        <v>1.81819751197849</v>
+        <v>1.808756332634304</v>
       </c>
       <c r="J4" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K4" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7128272307784411</v>
+        <v>0.7120877855640624</v>
       </c>
       <c r="M4" t="n">
-        <v>6.709303386031931</v>
+        <v>6.725635391903134</v>
       </c>
       <c r="N4" t="n">
-        <v>72.26448973437061</v>
+        <v>72.26172171645923</v>
       </c>
       <c r="O4" t="n">
-        <v>8.500852294586149</v>
+        <v>8.500689484768824</v>
       </c>
       <c r="P4" t="n">
-        <v>347.7965363980381</v>
+        <v>347.8917562577195</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29156,28 +29350,28 @@
         <v>0.0882</v>
       </c>
       <c r="I5" t="n">
-        <v>1.553217791587826</v>
+        <v>1.545869188824182</v>
       </c>
       <c r="J5" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6347452324667161</v>
+        <v>0.6339711594737609</v>
       </c>
       <c r="M5" t="n">
-        <v>6.133656944135799</v>
+        <v>6.133486460119445</v>
       </c>
       <c r="N5" t="n">
-        <v>73.7926093553759</v>
+        <v>73.73391030602114</v>
       </c>
       <c r="O5" t="n">
-        <v>8.590262473020012</v>
+        <v>8.586845189359195</v>
       </c>
       <c r="P5" t="n">
-        <v>351.3032515680894</v>
+        <v>351.3794453678698</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29234,28 +29428,28 @@
         <v>0.0594</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7469104121488845</v>
+        <v>0.7432873737624132</v>
       </c>
       <c r="J6" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K6" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2865852219484982</v>
+        <v>0.2865852362914917</v>
       </c>
       <c r="M6" t="n">
-        <v>5.489242843227303</v>
+        <v>5.47913963973357</v>
       </c>
       <c r="N6" t="n">
-        <v>70.61971103055349</v>
+        <v>70.34631569137082</v>
       </c>
       <c r="O6" t="n">
-        <v>8.403553476390419</v>
+        <v>8.387271051502438</v>
       </c>
       <c r="P6" t="n">
-        <v>363.3026293289234</v>
+        <v>363.3410427317297</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29312,28 +29506,28 @@
         <v>0.0561</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3345371193504079</v>
+        <v>0.3305570597231746</v>
       </c>
       <c r="J7" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K7" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04922378085310841</v>
+        <v>0.04854485822438181</v>
       </c>
       <c r="M7" t="n">
-        <v>6.626684115648544</v>
+        <v>6.61761885779464</v>
       </c>
       <c r="N7" t="n">
-        <v>111.4633393594832</v>
+        <v>111.0378704645132</v>
       </c>
       <c r="O7" t="n">
-        <v>10.55761996661573</v>
+        <v>10.53745085229408</v>
       </c>
       <c r="P7" t="n">
-        <v>375.5049794561875</v>
+        <v>375.546835202027</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29390,28 +29584,28 @@
         <v>0.0502</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1289846251611504</v>
+        <v>0.120400513076334</v>
       </c>
       <c r="J8" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K8" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007947046635096489</v>
+        <v>0.006969213750742553</v>
       </c>
       <c r="M8" t="n">
-        <v>7.412516661874524</v>
+        <v>7.42058119655764</v>
       </c>
       <c r="N8" t="n">
-        <v>108.5355952890641</v>
+        <v>108.4885628767844</v>
       </c>
       <c r="O8" t="n">
-        <v>10.41804181643864</v>
+        <v>10.41578431404877</v>
       </c>
       <c r="P8" t="n">
-        <v>370.4513972849982</v>
+        <v>370.5411530465807</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29468,28 +29662,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09564924583822816</v>
+        <v>0.09203954752207505</v>
       </c>
       <c r="J9" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K9" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003858446623347889</v>
+        <v>0.003604723009573818</v>
       </c>
       <c r="M9" t="n">
-        <v>7.987451018662904</v>
+        <v>7.970900634714902</v>
       </c>
       <c r="N9" t="n">
-        <v>125.5641832635037</v>
+        <v>125.0882630197411</v>
       </c>
       <c r="O9" t="n">
-        <v>11.20554252428251</v>
+        <v>11.18428643319461</v>
       </c>
       <c r="P9" t="n">
-        <v>365.310386083503</v>
+        <v>365.3479864890445</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29546,28 +29740,28 @@
         <v>0.0568</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01737936981226585</v>
+        <v>0.009001726400356446</v>
       </c>
       <c r="J10" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K10" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001888043845593712</v>
+        <v>5.148362837814613e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>6.419588013110082</v>
+        <v>6.400560022695658</v>
       </c>
       <c r="N10" t="n">
-        <v>82.45017739173308</v>
+        <v>81.92236006956729</v>
       </c>
       <c r="O10" t="n">
-        <v>9.080208003770238</v>
+        <v>9.051097174904669</v>
       </c>
       <c r="P10" t="n">
-        <v>356.3301579176373</v>
+        <v>356.41939019984</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29624,28 +29818,28 @@
         <v>0.0708</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03112833711959234</v>
+        <v>0.02900246819094926</v>
       </c>
       <c r="J11" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K11" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00073352839083074</v>
+        <v>0.0006480641679343924</v>
       </c>
       <c r="M11" t="n">
-        <v>5.792851876705365</v>
+        <v>5.755661618880442</v>
       </c>
       <c r="N11" t="n">
-        <v>68.80853515840641</v>
+        <v>68.24444872588337</v>
       </c>
       <c r="O11" t="n">
-        <v>8.295091027734802</v>
+        <v>8.2610198357033</v>
       </c>
       <c r="P11" t="n">
-        <v>351.6559690697355</v>
+        <v>351.6784476068391</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29702,28 +29896,28 @@
         <v>0.0735</v>
       </c>
       <c r="I12" t="n">
-        <v>0.18618259350702</v>
+        <v>0.1903879824716794</v>
       </c>
       <c r="J12" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K12" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02044061526236862</v>
+        <v>0.02170486818842254</v>
       </c>
       <c r="M12" t="n">
-        <v>6.107138269341323</v>
+        <v>6.080813989955286</v>
       </c>
       <c r="N12" t="n">
-        <v>90.84048358482517</v>
+        <v>90.15673493127217</v>
       </c>
       <c r="O12" t="n">
-        <v>9.531027414965564</v>
+        <v>9.495090043347254</v>
       </c>
       <c r="P12" t="n">
-        <v>349.9494547299862</v>
+        <v>349.9066057620138</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29780,28 +29974,28 @@
         <v>0.0697</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2581390153782319</v>
+        <v>0.2536281502939022</v>
       </c>
       <c r="J13" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K13" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05960519094408856</v>
+        <v>0.0583372283360053</v>
       </c>
       <c r="M13" t="n">
-        <v>5.795795303927387</v>
+        <v>5.789189304021477</v>
       </c>
       <c r="N13" t="n">
-        <v>56.80458419271621</v>
+        <v>56.61756395689424</v>
       </c>
       <c r="O13" t="n">
-        <v>7.53688159603932</v>
+        <v>7.524464363454334</v>
       </c>
       <c r="P13" t="n">
-        <v>347.5285258272739</v>
+        <v>347.5747617748659</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29858,28 +30052,28 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2035737440240739</v>
+        <v>0.1967381349793847</v>
       </c>
       <c r="J14" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K14" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03445455939636966</v>
+        <v>0.03270766800877645</v>
       </c>
       <c r="M14" t="n">
-        <v>6.217422700619323</v>
+        <v>6.206832072436253</v>
       </c>
       <c r="N14" t="n">
-        <v>61.60871184402118</v>
+        <v>61.28148817840501</v>
       </c>
       <c r="O14" t="n">
-        <v>7.849121724372809</v>
+        <v>7.828249368690614</v>
       </c>
       <c r="P14" t="n">
-        <v>348.548093096901</v>
+        <v>348.6188012519128</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29936,28 +30130,28 @@
         <v>0.0586</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3629907080095312</v>
+        <v>0.3546157165621021</v>
       </c>
       <c r="J15" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K15" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07836502068068585</v>
+        <v>0.07606280774649332</v>
       </c>
       <c r="M15" t="n">
-        <v>7.033237361635738</v>
+        <v>7.018584070793588</v>
       </c>
       <c r="N15" t="n">
-        <v>80.539414431202</v>
+        <v>80.14980515629314</v>
       </c>
       <c r="O15" t="n">
-        <v>8.974375434045648</v>
+        <v>8.952642356103205</v>
       </c>
       <c r="P15" t="n">
-        <v>348.4939442013225</v>
+        <v>348.5812375843374</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30014,28 +30208,28 @@
         <v>0.0599</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4593324124985253</v>
+        <v>0.4465697629686817</v>
       </c>
       <c r="J16" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K16" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1170871707672463</v>
+        <v>0.1126339356797131</v>
       </c>
       <c r="M16" t="n">
-        <v>6.707303328600078</v>
+        <v>6.711926035331785</v>
       </c>
       <c r="N16" t="n">
-        <v>81.02128202656743</v>
+        <v>80.84725540772781</v>
       </c>
       <c r="O16" t="n">
-        <v>9.001182257157526</v>
+        <v>8.991510185042767</v>
       </c>
       <c r="P16" t="n">
-        <v>350.3066200857932</v>
+        <v>350.4399008931003</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30092,28 +30286,28 @@
         <v>0.056</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5255264021906357</v>
+        <v>0.5121149459870072</v>
       </c>
       <c r="J17" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K17" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L17" t="n">
-        <v>0.167968938005864</v>
+        <v>0.1622946629227371</v>
       </c>
       <c r="M17" t="n">
-        <v>6.503119984721559</v>
+        <v>6.512269692970401</v>
       </c>
       <c r="N17" t="n">
-        <v>69.67236828776332</v>
+        <v>69.68286673375428</v>
       </c>
       <c r="O17" t="n">
-        <v>8.346997561264967</v>
+        <v>8.347626413164061</v>
       </c>
       <c r="P17" t="n">
-        <v>349.8646897824137</v>
+        <v>350.0047956242024</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30170,28 +30364,28 @@
         <v>0.0458</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6300051529785266</v>
+        <v>0.6052887095138693</v>
       </c>
       <c r="J18" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K18" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2190360581721346</v>
+        <v>0.2049219111345544</v>
       </c>
       <c r="M18" t="n">
-        <v>6.510767615983998</v>
+        <v>6.567818209039282</v>
       </c>
       <c r="N18" t="n">
-        <v>70.57096241618733</v>
+        <v>71.67869473748218</v>
       </c>
       <c r="O18" t="n">
-        <v>8.400652499430466</v>
+        <v>8.466327110233939</v>
       </c>
       <c r="P18" t="n">
-        <v>345.4406678489091</v>
+        <v>345.7012261317199</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30248,28 +30442,28 @@
         <v>0.0429</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6467617000889612</v>
+        <v>0.6253983513216022</v>
       </c>
       <c r="J19" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K19" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2003916522700731</v>
+        <v>0.1904415192389644</v>
       </c>
       <c r="M19" t="n">
-        <v>7.090139760597246</v>
+        <v>7.130544715240467</v>
       </c>
       <c r="N19" t="n">
-        <v>83.47683715493868</v>
+        <v>84.05744713362675</v>
       </c>
       <c r="O19" t="n">
-        <v>9.136565938849163</v>
+        <v>9.168284852338891</v>
       </c>
       <c r="P19" t="n">
-        <v>346.0890779807438</v>
+        <v>346.3136415218042</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30326,28 +30520,28 @@
         <v>0.0418</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6221222992222659</v>
+        <v>0.5994025436533831</v>
       </c>
       <c r="J20" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K20" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1688068191478546</v>
+        <v>0.1588969273467642</v>
       </c>
       <c r="M20" t="n">
-        <v>7.460188765522168</v>
+        <v>7.513550763825823</v>
       </c>
       <c r="N20" t="n">
-        <v>96.24308494253224</v>
+        <v>97.04126999200501</v>
       </c>
       <c r="O20" t="n">
-        <v>9.810356004882404</v>
+        <v>9.850952745394986</v>
       </c>
       <c r="P20" t="n">
-        <v>351.3745479318208</v>
+        <v>351.6125089358196</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -30404,28 +30598,28 @@
         <v>0.0451</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6706513011374541</v>
+        <v>0.6409399523612129</v>
       </c>
       <c r="J21" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K21" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1614245077360653</v>
+        <v>0.1490190882856208</v>
       </c>
       <c r="M21" t="n">
-        <v>8.571157592638009</v>
+        <v>8.661411398471241</v>
       </c>
       <c r="N21" t="n">
-        <v>119.0204737179674</v>
+        <v>120.7020721308345</v>
       </c>
       <c r="O21" t="n">
-        <v>10.90965048560069</v>
+        <v>10.98644947791754</v>
       </c>
       <c r="P21" t="n">
-        <v>354.5520107620694</v>
+        <v>354.86287870002</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -30482,28 +30676,28 @@
         <v>0.0319</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5973305788228999</v>
+        <v>0.5621744940050013</v>
       </c>
       <c r="J22" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K22" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09111855856305695</v>
+        <v>0.08142183246523105</v>
       </c>
       <c r="M22" t="n">
-        <v>10.63092950060248</v>
+        <v>10.73244074300966</v>
       </c>
       <c r="N22" t="n">
-        <v>179.5493491204205</v>
+        <v>181.7210635445934</v>
       </c>
       <c r="O22" t="n">
-        <v>13.39960257322658</v>
+        <v>13.48039552626678</v>
       </c>
       <c r="P22" t="n">
-        <v>351.8806540531174</v>
+        <v>352.2493703786416</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -30560,28 +30754,28 @@
         <v>0.0232</v>
       </c>
       <c r="I23" t="n">
-        <v>1.037277638053559</v>
+        <v>1.003908446273137</v>
       </c>
       <c r="J23" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K23" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L23" t="n">
-        <v>0.244332157025928</v>
+        <v>0.2323193427135047</v>
       </c>
       <c r="M23" t="n">
-        <v>10.12861875853261</v>
+        <v>10.19963016253085</v>
       </c>
       <c r="N23" t="n">
-        <v>171.262837966636</v>
+        <v>173.1328928335698</v>
       </c>
       <c r="O23" t="n">
-        <v>13.08674283260109</v>
+        <v>13.15799729569701</v>
       </c>
       <c r="P23" t="n">
-        <v>343.0742145027288</v>
+        <v>343.4223004031779</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -30638,28 +30832,28 @@
         <v>0.0254</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7925911593909243</v>
+        <v>0.7668477316722583</v>
       </c>
       <c r="J24" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K24" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1880371641914563</v>
+        <v>0.1785182275043543</v>
       </c>
       <c r="M24" t="n">
-        <v>9.058165062037448</v>
+        <v>9.122851272443464</v>
       </c>
       <c r="N24" t="n">
-        <v>138.9813426298765</v>
+        <v>140.0270961046738</v>
       </c>
       <c r="O24" t="n">
-        <v>11.78903484725855</v>
+        <v>11.83330453020938</v>
       </c>
       <c r="P24" t="n">
-        <v>352.7859116844482</v>
+        <v>353.053563648937</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -30716,28 +30910,28 @@
         <v>0.0362</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8168152267024851</v>
+        <v>0.7903580782255204</v>
       </c>
       <c r="J25" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K25" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2393796199387577</v>
+        <v>0.2274709910600028</v>
       </c>
       <c r="M25" t="n">
-        <v>7.975527130106067</v>
+        <v>8.037642647151015</v>
       </c>
       <c r="N25" t="n">
-        <v>105.4224534777142</v>
+        <v>106.5932930276517</v>
       </c>
       <c r="O25" t="n">
-        <v>10.26754369251547</v>
+        <v>10.32440279278427</v>
       </c>
       <c r="P25" t="n">
-        <v>360.3497006801372</v>
+        <v>360.629172929032</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -30794,28 +30988,28 @@
         <v>0.0466</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6832690677297349</v>
+        <v>0.6639170437642627</v>
       </c>
       <c r="J26" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K26" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2252825453787657</v>
+        <v>0.2162376279734439</v>
       </c>
       <c r="M26" t="n">
-        <v>6.883120006242507</v>
+        <v>6.919808613027767</v>
       </c>
       <c r="N26" t="n">
-        <v>79.09658022229348</v>
+        <v>79.53228629969112</v>
       </c>
       <c r="O26" t="n">
-        <v>8.893625819782024</v>
+        <v>8.918087592062051</v>
       </c>
       <c r="P26" t="n">
-        <v>346.2778553989154</v>
+        <v>346.4839378206309</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -30872,28 +31066,28 @@
         <v>0.0468</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4805340116064937</v>
+        <v>0.4614169189613151</v>
       </c>
       <c r="J27" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K27" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1459770988748665</v>
+        <v>0.1364133942541615</v>
       </c>
       <c r="M27" t="n">
-        <v>6.316994454658238</v>
+        <v>6.363353496443488</v>
       </c>
       <c r="N27" t="n">
-        <v>66.29875874868119</v>
+        <v>66.86496007873463</v>
       </c>
       <c r="O27" t="n">
-        <v>8.142404973266878</v>
+        <v>8.177099735158832</v>
       </c>
       <c r="P27" t="n">
-        <v>344.4728020861845</v>
+        <v>344.6756080433416</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -30950,28 +31144,28 @@
         <v>0.0456</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3104293481879192</v>
+        <v>0.292203535744078</v>
       </c>
       <c r="J28" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K28" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05642581736588315</v>
+        <v>0.0506793005441657</v>
       </c>
       <c r="M28" t="n">
-        <v>6.853577442879879</v>
+        <v>6.882229613806735</v>
       </c>
       <c r="N28" t="n">
-        <v>79.94426391392888</v>
+        <v>80.22583745214952</v>
       </c>
       <c r="O28" t="n">
-        <v>8.941155625193472</v>
+        <v>8.956887710145166</v>
       </c>
       <c r="P28" t="n">
-        <v>360.1701477411687</v>
+        <v>360.3619853347206</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -31028,28 +31222,28 @@
         <v>0.0456</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1744541339819363</v>
+        <v>0.1610990308512563</v>
       </c>
       <c r="J29" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K29" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01813742028273435</v>
+        <v>0.01568517487235865</v>
       </c>
       <c r="M29" t="n">
-        <v>6.92970200265685</v>
+        <v>6.940258660885638</v>
       </c>
       <c r="N29" t="n">
-        <v>81.5715594445283</v>
+        <v>81.50480865921963</v>
       </c>
       <c r="O29" t="n">
-        <v>9.031697484112735</v>
+        <v>9.028001365707674</v>
       </c>
       <c r="P29" t="n">
-        <v>371.6230432966855</v>
+        <v>371.7644914824653</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -31087,7 +31281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD296"/>
+  <dimension ref="A1:AD298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69555,6 +69749,274 @@
         </is>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-36.668822976207906,175.55733452940862</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-36.66949408026625,175.5570067705931</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-36.67016016008151,175.55666152315445</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-36.67082004205247,175.55629469706432</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>-36.67147830693578,175.55599261187558</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>-36.672151850708715,175.55568998742586</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>-36.67286705523341,175.55558536898326</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>-36.673572691561766,175.55535220912677</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>-36.67428822103306,175.55524631930507</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>-36.67500878430088,175.55520522944389</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>-36.67572465953468,175.55509665698426</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>-36.67643972936626,175.5549544353532</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>-36.677158341670406,175.5548896071001</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>-36.67788065365224,175.55485882693563</t>
+        </is>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>-36.67860430187711,175.55483303513674</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>-36.67933354350351,175.55484113306028</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>-36.680042357965135,175.55501068705914</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>-36.6807608695478,175.55510482611928</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>-36.68146822378921,175.5552953982499</t>
+        </is>
+      </c>
+      <c r="V297" t="inlineStr">
+        <is>
+          <t>-36.68219300943751,175.55541291212913</t>
+        </is>
+      </c>
+      <c r="W297" t="inlineStr">
+        <is>
+          <t>-36.68288040139948,175.5556822537476</t>
+        </is>
+      </c>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>-36.68356484897047,175.55596439725542</t>
+        </is>
+      </c>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>-36.68422552560149,175.5563184318097</t>
+        </is>
+      </c>
+      <c r="Z297" t="inlineStr">
+        <is>
+          <t>-36.684871706066446,175.5567203048905</t>
+        </is>
+      </c>
+      <c r="AA297" t="inlineStr">
+        <is>
+          <t>-36.68549673379044,175.55718661310053</t>
+        </is>
+      </c>
+      <c r="AB297" t="inlineStr">
+        <is>
+          <t>-36.68599444077465,175.55786037171285</t>
+        </is>
+      </c>
+      <c r="AC297" t="inlineStr">
+        <is>
+          <t>-36.68633884019671,175.55865004624596</t>
+        </is>
+      </c>
+      <c r="AD297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>-36.6735729340249,175.5553553261841</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>-36.674287672824114,175.55523927160735</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>-36.67500960427963,175.55521577111756</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>-36.6757173520528,175.55498458548672</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>-36.67643871697034,175.55493486543034</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>-36.67716021538117,175.55492648383188</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>-36.67788055466937,175.55485338846435</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>-36.678600170074745,175.5549038735278</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>-36.67932627799024,175.55491214626133</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>-36.6800437770252,175.55499681716833</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>-36.680752760583495,175.5551721957364</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>-36.681475850039654,175.55525384749697</t>
+        </is>
+      </c>
+      <c r="V298" t="inlineStr">
+        <is>
+          <t>-36.682188853555616,175.55543102006715</t>
+        </is>
+      </c>
+      <c r="W298" t="inlineStr">
+        <is>
+          <t>-36.68287336514646,175.55571291198922</t>
+        </is>
+      </c>
+      <c r="X298" t="inlineStr">
+        <is>
+          <t>-36.68354467819007,175.55605228490475</t>
+        </is>
+      </c>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>-36.68422131614428,175.55632898548126</t>
+        </is>
+      </c>
+      <c r="Z298" t="inlineStr">
+        <is>
+          <t>-36.68486457829353,175.55673173344584</t>
+        </is>
+      </c>
+      <c r="AA298" t="inlineStr">
+        <is>
+          <t>-36.68545750417814,175.55724752283362</t>
+        </is>
+      </c>
+      <c r="AB298" t="inlineStr">
+        <is>
+          <t>-36.68597095256746,175.55788735965643</t>
+        </is>
+      </c>
+      <c r="AC298" t="inlineStr">
+        <is>
+          <t>-36.68628967902975,175.558691375416</t>
+        </is>
+      </c>
+      <c r="AD298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0150/nzd0150.xlsx
+++ b/data/nzd0150/nzd0150.xlsx
@@ -29118,9 +29118,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0104</v>
+      </c>
       <c r="I2" t="n">
         <v>-7.627601156957182</v>
       </c>
@@ -29190,9 +29196,15 @@
       <c r="E3" t="n">
         <v>0.03707516646877979</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0103</v>
+      </c>
       <c r="I3" t="n">
         <v>-3.184682652972977</v>
       </c>
@@ -29263,13 +29275,13 @@
         <v>0.07415033293755958</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0507</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1077</v>
+        <v>0.0125</v>
       </c>
       <c r="I4" t="n">
         <v>1.808736406852489</v>
@@ -29341,13 +29353,13 @@
         <v>0.1112254994065029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0597</v>
+        <v>0.0164</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0882</v>
+        <v>0.0224</v>
       </c>
       <c r="I5" t="n">
         <v>1.545865887448022</v>
@@ -29419,13 +29431,13 @@
         <v>0.1483006658752826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0481</v>
+        <v>0.0591</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0594</v>
+        <v>0.0842</v>
       </c>
       <c r="I6" t="n">
         <v>0.7432781398053249</v>
@@ -29497,13 +29509,13 @@
         <v>0.1853758323442259</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0445</v>
+        <v>0.0546</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0561</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>0.3305570597231743</v>
@@ -29575,13 +29587,13 @@
         <v>0.2223363216811148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0373</v>
+        <v>0.0239</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0502</v>
+        <v>0.0303</v>
       </c>
       <c r="I8" t="n">
         <v>0.120400513076334</v>
@@ -29653,13 +29665,13 @@
         <v>0.2594114881498746</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.025</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0391</v>
+        <v>0.0197</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0507</v>
+        <v>0.0271</v>
       </c>
       <c r="I9" t="n">
         <v>0.09205114244715136</v>
@@ -29731,13 +29743,13 @@
         <v>0.2964866546187914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0482</v>
+        <v>0.0219</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0568</v>
+        <v>0.0341</v>
       </c>
       <c r="I10" t="n">
         <v>0.009001726400356394</v>
@@ -29809,13 +29821,13 @@
         <v>0.3335618210878943</v>
       </c>
       <c r="F11" t="n">
-        <v>0.065</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0588</v>
+        <v>0.0312</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0708</v>
+        <v>0.0552</v>
       </c>
       <c r="I11" t="n">
         <v>0.0289952070522793</v>
@@ -29887,13 +29899,13 @@
         <v>0.3706369875566541</v>
       </c>
       <c r="F12" t="n">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0564</v>
+        <v>0.0359</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0735</v>
+        <v>0.0612</v>
       </c>
       <c r="I12" t="n">
         <v>0.1903799770856878</v>
@@ -29965,13 +29977,13 @@
         <v>0.4077121540256002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0591</v>
+        <v>0.0385</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0697</v>
+        <v>0.0609</v>
       </c>
       <c r="I13" t="n">
         <v>0.2536226433223531</v>
@@ -30046,10 +30058,10 @@
         <v>0.06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0543</v>
+        <v>0.0485</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>0.1967563059127078</v>
@@ -30121,13 +30133,13 @@
         <v>0.481861173766524</v>
       </c>
       <c r="F15" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0483</v>
+        <v>0.0618</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0586</v>
+        <v>0.1087</v>
       </c>
       <c r="I15" t="n">
         <v>0.3546152594826011</v>
@@ -30199,13 +30211,13 @@
         <v>0.5189363402354024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.055</v>
+        <v>0.11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0495</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0599</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>0.446566669459056</v>
@@ -30277,13 +30289,13 @@
         <v>0.5558484563352084</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0473</v>
+        <v>0.0499</v>
       </c>
       <c r="H17" t="n">
-        <v>0.056</v>
+        <v>0.057</v>
       </c>
       <c r="I17" t="n">
         <v>0.5121149459870072</v>
@@ -30355,13 +30367,13 @@
         <v>0.5929236228041224</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0376</v>
+        <v>0.0396</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0458</v>
+        <v>0.0491</v>
       </c>
       <c r="I18" t="n">
         <v>0.6052887095138693</v>
@@ -30433,13 +30445,13 @@
         <v>0.6299987892730363</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0385</v>
+        <v>0.0317</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0429</v>
+        <v>0.0369</v>
       </c>
       <c r="I19" t="n">
         <v>0.6253983513216022</v>
@@ -30511,13 +30523,13 @@
         <v>0.6670739557419503</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0392</v>
+        <v>0.0341</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0418</v>
+        <v>0.0414</v>
       </c>
       <c r="I20" t="n">
         <v>0.5994025436533831</v>
@@ -30589,13 +30601,13 @@
         <v>0.7040613681015633</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0387</v>
+        <v>0.0332</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0451</v>
+        <v>0.0369</v>
       </c>
       <c r="I21" t="n">
         <v>0.6409399523612129</v>
@@ -30670,10 +30682,10 @@
         <v>0.03</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0285</v>
+        <v>0.029</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0319</v>
+        <v>0.0313</v>
       </c>
       <c r="I22" t="n">
         <v>0.5621433834053661</v>
@@ -30745,13 +30757,13 @@
         <v>0.7782117010392284</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0199</v>
+        <v>0.0246</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0232</v>
+        <v>0.0262</v>
       </c>
       <c r="I23" t="n">
         <v>1.003908446273137</v>
@@ -30823,13 +30835,13 @@
         <v>0.8152868675082278</v>
       </c>
       <c r="F24" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0235</v>
+        <v>0.0293</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0254</v>
+        <v>0.0363</v>
       </c>
       <c r="I24" t="n">
         <v>0.7668477316722584</v>
@@ -30901,13 +30913,13 @@
         <v>0.8523620339772272</v>
       </c>
       <c r="F25" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0345</v>
+        <v>0.039</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0362</v>
+        <v>0.0481</v>
       </c>
       <c r="I25" t="n">
         <v>0.7903558774541349</v>
@@ -30979,13 +30991,13 @@
         <v>0.8892226972144203</v>
       </c>
       <c r="F26" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0445</v>
+        <v>0.0524</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0466</v>
+        <v>0.0572</v>
       </c>
       <c r="I26" t="n">
         <v>0.6639196642694445</v>
@@ -31057,13 +31069,13 @@
         <v>0.9262978636832475</v>
       </c>
       <c r="F27" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0442</v>
+        <v>0.0487</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0468</v>
+        <v>0.0603</v>
       </c>
       <c r="I27" t="n">
         <v>0.4614179948546387</v>
@@ -31135,13 +31147,13 @@
         <v>0.9633730301520748</v>
       </c>
       <c r="F28" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0398</v>
+        <v>0.0492</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0456</v>
+        <v>0.0598</v>
       </c>
       <c r="I28" t="n">
         <v>0.2922085892809218</v>
@@ -31213,13 +31225,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0397</v>
+        <v>0.049</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0456</v>
+        <v>0.0559</v>
       </c>
       <c r="I29" t="n">
         <v>0.1610990308512563</v>
